--- a/HW/result.xlsx
+++ b/HW/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\2020_2학기\알고리즘\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600E244-5760-471A-94D4-A1EADF7AFC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B1D3F-030B-432F-ADE6-BB3599A71C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'결과 1'!$A$1:$C$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'결과 4'!$C$1:$C$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">결과3!$A$1:$C$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">총정리!$A$1:$I$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">총정리!$A$1:$H$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>average (ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L / M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,19 +196,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> - t(ms) </a:t>
+              <a:t> - t(ms)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
-              <a:t>그래프</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -248,7 +241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>총정리!$L$1</c:f>
+              <c:f>총정리!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -269,12 +262,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>총정리!$K$2:$K$6</c:f>
+              <c:f>총정리!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -282,23 +290,38 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>총정리!$L$2:$L$6</c:f>
+              <c:f>총정리!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.072E-2</c:v>
                 </c:pt>
@@ -306,9 +329,15 @@
                   <c:v>34.704719999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>520.22364000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2666.0290799999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>8200.645480000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>20391.782359999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -317,7 +346,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC9D-4081-B11E-BAA0DA3E8575}"/>
+              <c16:uniqueId val="{00000000-18FB-4F08-BBFF-03CE878AA9D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -326,7 +355,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>총정리!$M$1</c:f>
+              <c:f>총정리!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -349,10 +378,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>총정리!$K$2:$K$6</c:f>
+              <c:f>총정리!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -360,37 +389,67 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>총정리!$M$2:$M$6</c:f>
+              <c:f>총정리!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.2879999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.031800000000004</c:v>
+                  <c:v>8.8063600000000015</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>65.649200000000022</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>254.465</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>546.57351999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1218.20804</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>4565.3171999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10234.231399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32528.728920000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290457.97975999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,7 +457,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC9D-4081-B11E-BAA0DA3E8575}"/>
+              <c16:uniqueId val="{00000001-18FB-4F08-BBFF-03CE878AA9D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -407,7 +466,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>총정리!$N$1</c:f>
+              <c:f>총정리!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -430,10 +489,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>총정리!$K$2:$K$6</c:f>
+              <c:f>총정리!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -441,23 +500,38 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>총정리!$N$2:$N$6</c:f>
+              <c:f>총정리!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.28E-3</c:v>
                 </c:pt>
@@ -465,13 +539,28 @@
                   <c:v>1.4827600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6.6965199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>37.796479999999995</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>53.594560000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>156.45287999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>478.41667999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1136.95216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6883.3377999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82156.752919999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,7 +568,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BC9D-4081-B11E-BAA0DA3E8575}"/>
+              <c16:uniqueId val="{00000002-18FB-4F08-BBFF-03CE878AA9D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -491,11 +580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1431333871"/>
-        <c:axId val="1100409167"/>
+        <c:axId val="95338512"/>
+        <c:axId val="164170928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1431333871"/>
+        <c:axId val="95338512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,15 +641,15 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1100409167"/>
+        <c:crossAx val="164170928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1100409167"/>
+        <c:axId val="164170928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25000"/>
+          <c:max val="300000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -616,7 +705,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431333871"/>
+        <c:crossAx val="95338512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -703,7 +792,457 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>N  - O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>(n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>logn)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>수행시간</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t> / O(n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>수행시간</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>총정리!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L / M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$J$2:$J$138</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$N$2:$N$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>3.009345794392523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.939167498448839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8034800164861782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7325052491660609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.198302215747269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7864213173960115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5425544109373437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0014617677493121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7257202632130015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5354121169179233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01C6-4F73-9D60-C860E0446A3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="232981920"/>
+        <c:axId val="87191408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="232981920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87191408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="87191408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232981920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1259,27 +1798,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1662112</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>112658</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4">
+        <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FF3858-409F-4650-8970-45A3E8B00E81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD294D12-AF01-4D1B-8CB8-34D50B572839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,6 +2347,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C90233-A42B-434E-B430-12921156FB1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1563,249 +2654,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="9" style="3"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="24.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1">
         <v>3</v>
       </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
       <c r="G1" s="1">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="D2" s="1">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="E2" s="1">
         <v>7.9999999999999996E-6</v>
       </c>
+      <c r="E2">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="F2">
-        <v>1.0000000000000001E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="G2">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H2">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="I2" s="1">
-        <f>SUM(D2:H2)/5 * 1000</f>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H65" si="0">SUM(C2:G2)/5 * 1000</f>
         <v>1.0599999999999998E-2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="J2" s="3">
         <v>10</v>
       </c>
+      <c r="K2" s="1">
+        <f>SUM(H2:H6) /5</f>
+        <v>1.072E-2</v>
+      </c>
       <c r="L2" s="1">
-        <f>SUM(I2:I6) /5</f>
-        <v>1.072E-2</v>
+        <f>SUM(H32:H36)/5</f>
+        <v>1.2879999999999999E-2</v>
       </c>
       <c r="M2" s="1">
-        <f>SUM(I22:I26)/5</f>
-        <v>1.2879999999999999E-2</v>
+        <f>SUM(H82:H86)/5</f>
+        <v>4.28E-3</v>
       </c>
       <c r="N2" s="1">
-        <f>SUM(I47:I51)/5</f>
-        <v>4.28E-3</v>
+        <f>L2/M2</f>
+        <v>3.009345794392523</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>1.7E-5</v>
       </c>
       <c r="D3" s="1">
-        <v>1.7E-5</v>
-      </c>
-      <c r="E3" s="1">
         <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="E3">
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="F3">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="G3">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="H3">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="I3" s="1">
-        <f>SUM(D3:H3)/5 * 1000</f>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
         <v>1.12E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="J3" s="3">
         <v>100</v>
       </c>
+      <c r="K3" s="1">
+        <f>SUM(H7:H11) /5</f>
+        <v>34.704719999999995</v>
+      </c>
       <c r="L3" s="1">
-        <f>SUM(I7:I11) /5</f>
-        <v>34.704719999999995</v>
+        <f>SUM(H37:H41)/5</f>
+        <v>8.8063600000000015</v>
       </c>
       <c r="M3" s="1">
-        <f>SUM(I27:I31)</f>
-        <v>44.031800000000004</v>
+        <f>SUM(H87:H91)/5</f>
+        <v>1.4827600000000001</v>
       </c>
       <c r="N3" s="1">
-        <f>SUM(I52:I56)/5</f>
-        <v>1.4827600000000001</v>
+        <f t="shared" ref="N3:N11" si="1">L3/M3</f>
+        <v>5.939167498448839</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>1.7E-5</v>
       </c>
       <c r="D4" s="1">
-        <v>1.7E-5</v>
-      </c>
-      <c r="E4" s="1">
         <v>7.9999999999999996E-6</v>
       </c>
+      <c r="E4">
+        <v>7.9999999999999996E-6</v>
+      </c>
       <c r="F4">
-        <v>7.9999999999999996E-6</v>
+        <v>1.2E-5</v>
       </c>
       <c r="G4">
-        <v>1.2E-5</v>
-      </c>
-      <c r="H4">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="I4" s="1">
-        <f>SUM(D4:H4)/5 * 1000</f>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
         <v>1.04E-2</v>
       </c>
-      <c r="K4" s="3">
-        <v>300</v>
+      <c r="J4" s="3">
+        <v>200</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SUM(H12:H16) / 5</f>
+        <v>520.22364000000005</v>
       </c>
       <c r="L4" s="1">
-        <f>SUM(I12:I16) /5</f>
-        <v>2666.0290799999998</v>
+        <f>SUM(H42:H46) /5</f>
+        <v>65.649200000000022</v>
       </c>
       <c r="M4" s="1">
-        <f>SUM(I32:I36)/5</f>
-        <v>254.465</v>
+        <f>SUM(H92:H96)/5</f>
+        <v>6.6965199999999996</v>
       </c>
       <c r="N4" s="1">
-        <f>SUM(I57:I61)/5</f>
-        <v>37.796479999999995</v>
+        <f t="shared" si="1"/>
+        <v>9.8034800164861782</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>1.7E-5</v>
       </c>
       <c r="D5" s="1">
-        <v>1.7E-5</v>
-      </c>
-      <c r="E5" s="1">
         <v>7.9999999999999996E-6</v>
       </c>
+      <c r="E5">
+        <v>9.0000000000000002E-6</v>
+      </c>
       <c r="F5">
-        <v>9.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="G5">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H5">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="I5" s="1">
-        <f>SUM(D5:H5)/5 * 1000</f>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="K5" s="3">
-        <v>500</v>
+      <c r="J5" s="3">
+        <v>300</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SUM(H17:H21) /5</f>
+        <v>2666.0290799999998</v>
       </c>
       <c r="L5" s="1">
-        <f>SUM(I17:I21) /5</f>
-        <v>20391.782359999997</v>
+        <f>SUM(H47:H51)/5</f>
+        <v>254.465</v>
       </c>
       <c r="M5" s="1">
-        <f>SUM(I37:I41)/5</f>
-        <v>1218.20804</v>
+        <f>SUM(H97:H101)/5</f>
+        <v>37.796479999999995</v>
       </c>
       <c r="N5" s="1">
-        <f>SUM(I62:I66)/5</f>
-        <v>156.45287999999999</v>
+        <f t="shared" si="1"/>
+        <v>6.7325052491660609</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="D6" s="1">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="E6" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="E6">
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="F6">
@@ -1814,1984 +2916,3487 @@
       <c r="G6">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H6">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="I6" s="1">
-        <f>SUM(D6:H6)/5 * 1000</f>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
         <v>1.1399999999999999E-2</v>
       </c>
-      <c r="K6" s="3">
-        <v>1000</v>
+      <c r="J6" s="3">
+        <v>400</v>
+      </c>
+      <c r="K6" s="1">
+        <f>SUM(H22:H26) /5</f>
+        <v>8200.645480000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>546.57351999999992</v>
       </c>
       <c r="M6" s="1">
-        <f>SUM(I42:I46)/5</f>
-        <v>10234.231399999999</v>
+        <f>SUM(H102:H106)/5</f>
+        <v>53.594560000000001</v>
       </c>
       <c r="N6" s="1">
-        <f>SUM(I67:I71)/5</f>
-        <v>1136.95216</v>
+        <f t="shared" si="1"/>
+        <v>10.198302215747269</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>3.7433000000000001E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>3.7433000000000001E-2</v>
-      </c>
-      <c r="E7" s="1">
         <v>3.3818000000000001E-2</v>
       </c>
+      <c r="E7">
+        <v>3.4280999999999999E-2</v>
+      </c>
       <c r="F7">
-        <v>3.4280999999999999E-2</v>
+        <v>3.4047000000000001E-2</v>
       </c>
       <c r="G7">
-        <v>3.4047000000000001E-2</v>
-      </c>
-      <c r="H7">
         <v>3.5060000000000001E-2</v>
       </c>
-      <c r="I7" s="1">
-        <f>SUM(D7:H7)/5 * 1000</f>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
         <v>34.927800000000005</v>
+      </c>
+      <c r="J7" s="3">
+        <v>500</v>
+      </c>
+      <c r="K7" s="1">
+        <f>SUM(H27:H31) / 5</f>
+        <v>20391.782359999997</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1218.20804</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUM(H107:H111)/5</f>
+        <v>156.45287999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7864213173960115</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>3.5284999999999997E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>3.5284999999999997E-2</v>
-      </c>
-      <c r="E8" s="1">
         <v>3.3468999999999999E-2</v>
       </c>
+      <c r="E8">
+        <v>3.4370999999999999E-2</v>
+      </c>
       <c r="F8">
-        <v>3.4370999999999999E-2</v>
+        <v>3.5071999999999999E-2</v>
       </c>
       <c r="G8">
-        <v>3.5071999999999999E-2</v>
-      </c>
-      <c r="H8">
         <v>3.6017E-2</v>
       </c>
-      <c r="I8" s="1">
-        <f>SUM(D8:H8)/5 * 1000</f>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
         <v>34.84279999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>800</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4565.3171999999995</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUM(H112:H116)/5</f>
+        <v>478.41667999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5425544109373437</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>3.4644000000000001E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>3.4644000000000001E-2</v>
-      </c>
-      <c r="E9" s="1">
         <v>3.3931999999999997E-2</v>
       </c>
+      <c r="E9">
+        <v>3.4074E-2</v>
+      </c>
       <c r="F9">
-        <v>3.4074E-2</v>
+        <v>3.3849999999999998E-2</v>
       </c>
       <c r="G9">
-        <v>3.3849999999999998E-2</v>
-      </c>
-      <c r="H9">
         <v>3.4277000000000002E-2</v>
       </c>
-      <c r="I9" s="1">
-        <f>SUM(D9:H9)/5 * 1000</f>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
         <v>34.155399999999993</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10234.231399999999</v>
+      </c>
+      <c r="M9" s="1">
+        <f>SUM(H117:H121)/5</f>
+        <v>1136.95216</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0014617677493121</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>3.9722E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>3.9722E-2</v>
-      </c>
-      <c r="E10" s="1">
         <v>3.3682999999999998E-2</v>
       </c>
+      <c r="E10">
+        <v>3.3362000000000003E-2</v>
+      </c>
       <c r="F10">
-        <v>3.3362000000000003E-2</v>
+        <v>3.4458000000000003E-2</v>
       </c>
       <c r="G10">
-        <v>3.4458000000000003E-2</v>
-      </c>
-      <c r="H10">
         <v>3.3644E-2</v>
       </c>
-      <c r="I10" s="1">
-        <f>SUM(D10:H10)/5 * 1000</f>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
         <v>34.973799999999997</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L10" s="1">
+        <v>32528.728920000001</v>
+      </c>
+      <c r="M10" s="1">
+        <f>SUM(H122:H126)/5</f>
+        <v>6883.3377999999993</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7257202632130015</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>3.5584999999999999E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>3.5584999999999999E-2</v>
-      </c>
-      <c r="E11" s="1">
         <v>3.4104000000000002E-2</v>
       </c>
+      <c r="E11">
+        <v>3.4922000000000002E-2</v>
+      </c>
       <c r="F11">
-        <v>3.4922000000000002E-2</v>
+        <v>3.4518E-2</v>
       </c>
       <c r="G11">
-        <v>3.4518E-2</v>
-      </c>
-      <c r="H11">
         <v>3.3989999999999999E-2</v>
       </c>
-      <c r="I11" s="1">
-        <f>SUM(D11:H11)/5 * 1000</f>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
         <v>34.623799999999996</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L11" s="1">
+        <v>290457.97975999996</v>
+      </c>
+      <c r="M11" s="1">
+        <f>SUM(H127:H131)/5</f>
+        <v>82156.752919999999</v>
+      </c>
+      <c r="N11" s="1">
+        <f>L11/M11</f>
+        <v>3.5354121169179233</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1">
-        <v>300</v>
-      </c>
-      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
-        <v>2.744936</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.6855799999999999</v>
+      <c r="C12">
+        <v>0.52051899999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.51579799999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.51513799999999998</v>
       </c>
       <c r="F12">
-        <v>2.644501</v>
+        <v>0.52249000000000001</v>
       </c>
       <c r="G12">
-        <v>2.7128549999999998</v>
-      </c>
-      <c r="H12">
-        <v>2.6793290000000001</v>
-      </c>
-      <c r="I12" s="1">
-        <f>SUM(D12:H12)/5 * 1000</f>
-        <v>2693.4402</v>
+        <v>0.51701699999999995</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>518.19240000000002</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1">
-        <v>300</v>
-      </c>
-      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="1">
-        <v>2.6841059999999999</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.6454629999999999</v>
+      <c r="C13">
+        <v>0.52249000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.529721</v>
+      </c>
+      <c r="E13">
+        <v>0.51815999999999995</v>
       </c>
       <c r="F13">
-        <v>2.6406290000000001</v>
+        <v>0.52041099999999996</v>
       </c>
       <c r="G13">
-        <v>2.6621480000000002</v>
-      </c>
-      <c r="H13">
-        <v>2.6772990000000001</v>
-      </c>
-      <c r="I13" s="1">
-        <f>SUM(D13:H13)/5 * 1000</f>
-        <v>2661.9289999999996</v>
+        <v>0.53665200000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>525.48680000000002</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1">
-        <v>300</v>
-      </c>
-      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
-        <v>2.6825589999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.625842</v>
+      <c r="C14">
+        <v>0.51837200000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.52041099999999996</v>
+      </c>
+      <c r="E14">
+        <v>0.517702</v>
       </c>
       <c r="F14">
-        <v>2.65246</v>
+        <v>0.529721</v>
       </c>
       <c r="G14">
-        <v>2.6845560000000002</v>
-      </c>
-      <c r="H14">
-        <v>2.6665079999999999</v>
-      </c>
-      <c r="I14" s="1">
-        <f>SUM(D14:H14)/5 * 1000</f>
-        <v>2662.3850000000002</v>
+        <v>0.51829099999999995</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>520.89940000000001</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1">
-        <v>300</v>
-      </c>
-      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="1">
-        <v>2.6862720000000002</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2.6606019999999999</v>
+      <c r="C15">
+        <v>0.517702</v>
+      </c>
+      <c r="D15">
+        <v>0.51852699999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.52051899999999995</v>
       </c>
       <c r="F15">
-        <v>2.6502569999999999</v>
+        <v>0.51513799999999998</v>
       </c>
       <c r="G15">
-        <v>2.6611220000000002</v>
-      </c>
-      <c r="H15">
-        <v>2.6820659999999998</v>
-      </c>
-      <c r="I15" s="1">
-        <f>SUM(D15:H15)/5 * 1000</f>
-        <v>2668.0637999999999</v>
+        <v>0.51912999999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>518.20320000000004</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.51513799999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.51815999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.52249000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.51837200000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.51752200000000004</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>518.33640000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>300</v>
       </c>
-      <c r="C16" s="1">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C17" s="1">
+        <v>2.744936</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.6855799999999999</v>
+      </c>
+      <c r="E17">
+        <v>2.644501</v>
+      </c>
+      <c r="F17">
+        <v>2.7128549999999998</v>
+      </c>
+      <c r="G17">
+        <v>2.6793290000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>2693.4402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>300</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.6841059999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.6454629999999999</v>
+      </c>
+      <c r="E18">
+        <v>2.6406290000000001</v>
+      </c>
+      <c r="F18">
+        <v>2.6621480000000002</v>
+      </c>
+      <c r="G18">
+        <v>2.6772990000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>2661.9289999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>300</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.6825589999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.625842</v>
+      </c>
+      <c r="E19">
+        <v>2.65246</v>
+      </c>
+      <c r="F19">
+        <v>2.6845560000000002</v>
+      </c>
+      <c r="G19">
+        <v>2.6665079999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>2662.3850000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>300</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.6862720000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.6606019999999999</v>
+      </c>
+      <c r="E20">
+        <v>2.6502569999999999</v>
+      </c>
+      <c r="F20">
+        <v>2.6611220000000002</v>
+      </c>
+      <c r="G20">
+        <v>2.6820659999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>2668.0637999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>300</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
         <v>2.643608</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D21" s="1">
         <v>2.6186129999999999</v>
       </c>
-      <c r="F16">
+      <c r="E21">
         <v>2.636361</v>
       </c>
-      <c r="G16">
+      <c r="F21">
         <v>2.6776680000000002</v>
       </c>
-      <c r="H16">
+      <c r="G21">
         <v>2.6453869999999999</v>
       </c>
-      <c r="I16" s="1">
-        <f>SUM(D16:H16)/5 * 1000</f>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
         <v>2644.3273999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>400</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>8.2142750000000007</v>
+      </c>
+      <c r="D22">
+        <v>8.2339070000000003</v>
+      </c>
+      <c r="E22">
+        <v>8.2383050000000004</v>
+      </c>
+      <c r="F22">
+        <v>8.210896</v>
+      </c>
+      <c r="G22">
+        <v>8.2044580000000007</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>8220.3682000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>400</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>8.1578959999999991</v>
+      </c>
+      <c r="D23">
+        <v>8.2337749999999996</v>
+      </c>
+      <c r="E23">
+        <v>8.2456580000000006</v>
+      </c>
+      <c r="F23">
+        <v>8.1680799999999998</v>
+      </c>
+      <c r="G23">
+        <v>8.2243750000000002</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>8205.9567999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>400</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>8.210896</v>
+      </c>
+      <c r="D24">
+        <v>8.173508</v>
+      </c>
+      <c r="E24">
+        <v>8.2075189999999996</v>
+      </c>
+      <c r="F24">
+        <v>8.2339070000000003</v>
+      </c>
+      <c r="G24">
+        <v>8.1705249999999996</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>8199.2709999999988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>400</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>8.1649879999999992</v>
+      </c>
+      <c r="D25">
+        <v>8.1937239999999996</v>
+      </c>
+      <c r="E25">
+        <v>8.1962130000000002</v>
+      </c>
+      <c r="F25">
+        <v>8.2339070000000003</v>
+      </c>
+      <c r="G25">
+        <v>8.127122</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>8183.1908000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>400</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>8.1476600000000001</v>
+      </c>
+      <c r="D26">
+        <v>8.1680799999999998</v>
+      </c>
+      <c r="E26">
+        <v>8.1762010000000007</v>
+      </c>
+      <c r="F26">
+        <v>8.2456580000000006</v>
+      </c>
+      <c r="G26">
+        <v>8.2346039999999991</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>8194.4405999999981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>500</v>
       </c>
-      <c r="C17" s="1">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C27" s="1">
         <v>20.256686999999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D27" s="1">
         <v>20.343914000000002</v>
       </c>
-      <c r="F17">
+      <c r="E27">
         <v>20.27693</v>
       </c>
-      <c r="G17">
+      <c r="F27">
         <v>20.610054000000002</v>
       </c>
-      <c r="H17">
+      <c r="G27">
         <v>20.441696</v>
       </c>
-      <c r="I17" s="1">
-        <f>SUM(D17:H17)/5 * 1000</f>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
         <v>20385.856199999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>500</v>
       </c>
-      <c r="C18" s="1">
+      <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C28" s="1">
         <v>20.18318</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D28" s="1">
         <v>20.318501000000001</v>
       </c>
-      <c r="F18">
+      <c r="E28">
         <v>20.335664999999999</v>
       </c>
-      <c r="G18">
+      <c r="F28">
         <v>20.610120999999999</v>
       </c>
-      <c r="H18">
+      <c r="G28">
         <v>20.546908999999999</v>
       </c>
-      <c r="I18" s="1">
-        <f>SUM(D18:H18)/5 * 1000</f>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
         <v>20398.875199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>500</v>
       </c>
-      <c r="C19" s="1">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="1">
+      <c r="C29" s="1">
         <v>20.309183000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D29" s="1">
         <v>20.333202</v>
       </c>
-      <c r="F19">
+      <c r="E29">
         <v>20.324297000000001</v>
       </c>
-      <c r="G19">
+      <c r="F29">
         <v>20.587595</v>
       </c>
-      <c r="H19">
+      <c r="G29">
         <v>20.440577999999999</v>
       </c>
-      <c r="I19" s="1">
-        <f>SUM(D19:H19)/5 * 1000</f>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
         <v>20398.971000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>500</v>
       </c>
-      <c r="C20" s="1">
+      <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
+      <c r="C30" s="1">
         <v>20.221890999999999</v>
       </c>
-      <c r="E20" s="1">
+      <c r="D30" s="1">
         <v>20.291191000000001</v>
       </c>
-      <c r="F20">
+      <c r="E30">
         <v>20.278946000000001</v>
       </c>
-      <c r="G20">
+      <c r="F30">
         <v>20.583041999999999</v>
       </c>
-      <c r="H20">
+      <c r="G30">
         <v>20.425041</v>
       </c>
-      <c r="I20" s="1">
-        <f>SUM(D20:H20)/5 * 1000</f>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
         <v>20360.022199999996</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>500</v>
       </c>
-      <c r="C21" s="1">
+      <c r="B31" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
+      <c r="C31" s="1">
         <v>20.309919000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="D31" s="1">
         <v>20.268661000000002</v>
       </c>
-      <c r="F21">
+      <c r="E31">
         <v>20.272541</v>
       </c>
-      <c r="G21">
+      <c r="F31">
         <v>20.678764000000001</v>
       </c>
-      <c r="H21">
+      <c r="G31">
         <v>20.546050999999999</v>
       </c>
-      <c r="I21" s="1">
-        <f>SUM(D21:H21)/5 * 1000</f>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
         <v>20415.1872</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>10</v>
       </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="D32" s="1">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="F22">
+      <c r="E32">
         <v>1.2E-5</v>
       </c>
-      <c r="G22">
+      <c r="F32">
         <v>1.2E-5</v>
       </c>
-      <c r="H22">
+      <c r="G32">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="I22" s="1">
-        <f>SUM(D22:H22)/5 * 1000</f>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="D33" s="1">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="F23">
+      <c r="E33">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="G23">
+      <c r="F33">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H23">
+      <c r="G33">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="I23" s="1">
-        <f>SUM(D23:H23)/5 * 1000</f>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
         <v>1.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>10</v>
       </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D34" s="1">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="F24">
+      <c r="E34">
         <v>1.1E-5</v>
       </c>
-      <c r="G24">
+      <c r="F34">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H24">
+      <c r="G34">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="I24" s="1">
-        <f>SUM(D24:H24)/5 * 1000</f>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>10</v>
       </c>
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="E25" s="1">
+      <c r="D35" s="1">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="F25">
+      <c r="E35">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="G25">
+      <c r="F35">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H25">
+      <c r="G35">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="I25" s="1">
-        <f>SUM(D25:H25)/5 * 1000</f>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>10</v>
       </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
         <v>2.9E-5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D36" s="1">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="F26">
+      <c r="E36">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="G26">
+      <c r="F36">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H26">
+      <c r="G36">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="I26" s="1">
-        <f>SUM(D26:H26)/5 * 1000</f>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>100</v>
       </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
         <v>8.7309999999999992E-3</v>
       </c>
-      <c r="E27" s="1">
+      <c r="D37" s="1">
         <v>8.7460000000000003E-3</v>
       </c>
-      <c r="F27">
+      <c r="E37">
         <v>8.7130000000000003E-3</v>
       </c>
-      <c r="G27">
+      <c r="F37">
         <v>8.7880000000000007E-3</v>
       </c>
-      <c r="H27">
+      <c r="G37">
         <v>8.7670000000000005E-3</v>
       </c>
-      <c r="I27" s="1">
-        <f>SUM(D27:H27)/5 * 1000</f>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
         <v>8.7489999999999988</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>100</v>
       </c>
-      <c r="C28" s="1">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
         <v>8.7360000000000007E-3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="D38" s="1">
         <v>8.7419999999999998E-3</v>
       </c>
-      <c r="F28">
+      <c r="E38">
         <v>8.763E-3</v>
       </c>
-      <c r="G28">
+      <c r="F38">
         <v>8.8339999999999998E-3</v>
       </c>
-      <c r="H28">
+      <c r="G38">
         <v>8.7749999999999998E-3</v>
       </c>
-      <c r="I28" s="1">
-        <f>SUM(D28:H28)/5 * 1000</f>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
         <v>8.77</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>100</v>
       </c>
-      <c r="C29" s="1">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
         <v>9.6469999999999993E-3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D39" s="1">
         <v>8.8459999999999997E-3</v>
       </c>
-      <c r="F29">
+      <c r="E39">
         <v>8.8739999999999999E-3</v>
       </c>
-      <c r="G29">
+      <c r="F39">
         <v>8.8789999999999997E-3</v>
       </c>
-      <c r="H29">
+      <c r="G39">
         <v>8.8559999999999993E-3</v>
       </c>
-      <c r="I29" s="1">
-        <f>SUM(D29:H29)/5 * 1000</f>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
         <v>9.0204000000000022</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>100</v>
       </c>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
         <v>8.8299999999999993E-3</v>
       </c>
-      <c r="E30" s="1">
+      <c r="D40" s="1">
         <v>8.77E-3</v>
       </c>
-      <c r="F30">
+      <c r="E40">
         <v>8.7799999999999996E-3</v>
       </c>
-      <c r="G30">
+      <c r="F40">
         <v>8.8319999999999996E-3</v>
       </c>
-      <c r="H30">
+      <c r="G40">
         <v>8.8129999999999997E-3</v>
       </c>
-      <c r="I30" s="1">
-        <f>SUM(D30:H30)/5 * 1000</f>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
         <v>8.8049999999999979</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8.6560000000000005E-3</v>
+      </c>
+      <c r="E41">
+        <v>8.6789999999999992E-3</v>
+      </c>
+      <c r="F41">
+        <v>8.6730000000000002E-3</v>
+      </c>
+      <c r="G41">
+        <v>8.6789999999999992E-3</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6874000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>200</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>6.6622000000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>6.6360000000000002E-2</v>
+      </c>
+      <c r="E42">
+        <v>6.6072000000000006E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.4859E-2</v>
+      </c>
+      <c r="G42">
+        <v>6.4906000000000005E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>65.763800000000018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>200</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>6.6783999999999996E-2</v>
+      </c>
+      <c r="D43">
+        <v>6.5147999999999998E-2</v>
+      </c>
+      <c r="E43">
+        <v>6.6328999999999999E-2</v>
+      </c>
+      <c r="F43">
+        <v>6.4740000000000006E-2</v>
+      </c>
+      <c r="G43">
+        <v>6.5548999999999996E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>65.710000000000008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>200</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>6.6865999999999995E-2</v>
+      </c>
+      <c r="D44">
+        <v>6.5049999999999997E-2</v>
+      </c>
+      <c r="E44">
+        <v>6.6514000000000004E-2</v>
+      </c>
+      <c r="F44">
+        <v>6.4794000000000004E-2</v>
+      </c>
+      <c r="G44">
+        <v>6.497E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>65.638800000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>200</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>6.5888000000000002E-2</v>
+      </c>
+      <c r="D45">
+        <v>6.4931000000000003E-2</v>
+      </c>
+      <c r="E45">
+        <v>6.8155999999999994E-2</v>
+      </c>
+      <c r="F45">
+        <v>6.4875000000000002E-2</v>
+      </c>
+      <c r="G45">
+        <v>6.5014000000000002E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>65.772800000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>200</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>6.5763000000000002E-2</v>
+      </c>
+      <c r="D46">
+        <v>6.4984E-2</v>
+      </c>
+      <c r="E46">
+        <v>6.5904000000000004E-2</v>
+      </c>
+      <c r="F46">
+        <v>6.4851000000000006E-2</v>
+      </c>
+      <c r="G46">
+        <v>6.5300999999999998E-2</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>65.360600000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>300</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.25792700000000002</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.25408500000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.25424099999999999</v>
+      </c>
+      <c r="F47">
+        <v>0.254745</v>
+      </c>
+      <c r="G47">
+        <v>0.25430599999999998</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>255.06079999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>300</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.25476700000000002</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.25410899999999997</v>
+      </c>
+      <c r="E48">
+        <v>0.25401699999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.25545899999999999</v>
+      </c>
+      <c r="G48">
+        <v>0.25492700000000001</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>254.6558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>300</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.25435600000000003</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.25516800000000001</v>
+      </c>
+      <c r="E49">
+        <v>0.25438699999999997</v>
+      </c>
+      <c r="F49">
+        <v>0.25473000000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.25662499999999999</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>255.05320000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>300</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.25310199999999999</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.253861</v>
+      </c>
+      <c r="E50">
+        <v>0.25397799999999998</v>
+      </c>
+      <c r="F50">
+        <v>0.25342599999999998</v>
+      </c>
+      <c r="G50">
+        <v>0.253774</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>253.62819999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>300</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.254023</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.25394099999999997</v>
+      </c>
+      <c r="E51">
+        <v>0.25409999999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.25430399999999997</v>
+      </c>
+      <c r="G51">
+        <v>0.25326700000000002</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>253.92700000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>400</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>0.55511900000000003</v>
+      </c>
+      <c r="D52">
+        <v>0.54007099999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.55679000000000001</v>
+      </c>
+      <c r="F52">
+        <v>0.53884200000000004</v>
+      </c>
+      <c r="G52">
+        <v>0.543014</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>546.76719999999989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>400</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0.55375799999999997</v>
+      </c>
+      <c r="D53">
+        <v>0.54358700000000004</v>
+      </c>
+      <c r="E53">
+        <v>0.55192399999999997</v>
+      </c>
+      <c r="F53">
+        <v>0.54015999999999997</v>
+      </c>
+      <c r="G53">
+        <v>0.55085200000000001</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>548.05619999999988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>400</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.55288000000000004</v>
+      </c>
+      <c r="D54">
+        <v>0.54169400000000001</v>
+      </c>
+      <c r="E54">
+        <v>0.55192300000000005</v>
+      </c>
+      <c r="F54">
+        <v>0.54096999999999995</v>
+      </c>
+      <c r="G54">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>548.6934</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>400</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>0.55388400000000004</v>
+      </c>
+      <c r="D55">
+        <v>0.53904600000000003</v>
+      </c>
+      <c r="E55">
+        <v>0.550678</v>
+      </c>
+      <c r="F55">
+        <v>0.54066700000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.54151700000000003</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>545.15840000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>400</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>0.55047299999999999</v>
+      </c>
+      <c r="D56">
+        <v>0.53634599999999999</v>
+      </c>
+      <c r="E56">
+        <v>0.55416500000000002</v>
+      </c>
+      <c r="F56">
+        <v>0.53881599999999996</v>
+      </c>
+      <c r="G56">
+        <v>0.54116200000000003</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>544.19240000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>500</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.215087</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.2123600000000001</v>
+      </c>
+      <c r="E57">
+        <v>1.21323</v>
+      </c>
+      <c r="F57">
+        <v>1.215093</v>
+      </c>
+      <c r="G57">
+        <v>1.2195590000000001</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>1215.0658000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>500</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.2168380000000001</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.2122250000000001</v>
+      </c>
+      <c r="E58">
+        <v>1.217681</v>
+      </c>
+      <c r="F58">
+        <v>1.223519</v>
+      </c>
+      <c r="G58">
+        <v>1.2176169999999999</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>1217.5759999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>500</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.218008</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.21587</v>
+      </c>
+      <c r="E59">
+        <v>1.2160820000000001</v>
+      </c>
+      <c r="F59">
+        <v>1.2222459999999999</v>
+      </c>
+      <c r="G59">
+        <v>1.226769</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>1219.7950000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>500</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.2148509999999999</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.2146129999999999</v>
+      </c>
+      <c r="E60">
+        <v>1.2163679999999999</v>
+      </c>
+      <c r="F60">
+        <v>1.221962</v>
+      </c>
+      <c r="G60">
+        <v>1.2165440000000001</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>1216.8676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>500</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.2199230000000001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.2186170000000001</v>
+      </c>
+      <c r="E61">
+        <v>1.2227220000000001</v>
+      </c>
+      <c r="F61">
+        <v>1.2237290000000001</v>
+      </c>
+      <c r="G61">
+        <v>1.2236880000000001</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>1221.7357999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>800</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>4.6194839999999999</v>
+      </c>
+      <c r="D62">
+        <v>4.526421</v>
+      </c>
+      <c r="E62">
+        <v>4.6683560000000002</v>
+      </c>
+      <c r="F62">
+        <v>4.5246079999999997</v>
+      </c>
+      <c r="G62">
+        <v>4.5754630000000001</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>4582.8663999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>800</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>4.5808530000000003</v>
+      </c>
+      <c r="D63">
+        <v>4.5631120000000003</v>
+      </c>
+      <c r="E63">
+        <v>4.547517</v>
+      </c>
+      <c r="F63">
+        <v>4.533455</v>
+      </c>
+      <c r="G63">
+        <v>4.5266089999999997</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>4550.3091999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>800</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>4.6289410000000002</v>
+      </c>
+      <c r="D64">
+        <v>4.554265</v>
+      </c>
+      <c r="E64">
+        <v>4.5545859999999996</v>
+      </c>
+      <c r="F64">
+        <v>4.5405860000000002</v>
+      </c>
+      <c r="G64">
+        <v>4.5425240000000002</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="0"/>
+        <v>4564.1803999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>800</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>4.6341489999999999</v>
+      </c>
+      <c r="D65">
+        <v>4.5461349999999996</v>
+      </c>
+      <c r="E65">
+        <v>4.5474569999999996</v>
+      </c>
+      <c r="F65">
+        <v>4.5416480000000004</v>
+      </c>
+      <c r="G65">
+        <v>4.527139</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="0"/>
+        <v>4559.3055999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>800</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>4.6331410000000002</v>
+      </c>
+      <c r="D66">
+        <v>4.5495599999999996</v>
+      </c>
+      <c r="E66">
+        <v>4.5637740000000004</v>
+      </c>
+      <c r="F66">
+        <v>4.549194</v>
+      </c>
+      <c r="G66">
+        <v>4.5539529999999999</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" ref="H66:H81" si="2">SUM(C66:G66)/5 * 1000</f>
+        <v>4569.9243999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10.193158</v>
+      </c>
+      <c r="D67" s="1">
+        <v>10.192660999999999</v>
+      </c>
+      <c r="E67">
+        <v>10.183419000000001</v>
+      </c>
+      <c r="F67">
+        <v>10.308341</v>
+      </c>
+      <c r="G67">
+        <v>10.28764</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="2"/>
+        <v>10233.043799999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>10.189745</v>
+      </c>
+      <c r="D68" s="1">
+        <v>10.173273</v>
+      </c>
+      <c r="E68">
+        <v>10.188693000000001</v>
+      </c>
+      <c r="F68">
+        <v>10.286883</v>
+      </c>
+      <c r="G68">
+        <v>10.317207</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="2"/>
+        <v>10231.1602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10.205686999999999</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10.186142</v>
+      </c>
+      <c r="E69">
+        <v>10.196533000000001</v>
+      </c>
+      <c r="F69">
+        <v>10.293635</v>
+      </c>
+      <c r="G69">
+        <v>10.317036999999999</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="2"/>
+        <v>10239.8068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10.216113</v>
+      </c>
+      <c r="D70" s="1">
+        <v>10.184437000000001</v>
+      </c>
+      <c r="E70">
+        <v>10.174146</v>
+      </c>
+      <c r="F70">
+        <v>10.277639000000001</v>
+      </c>
+      <c r="G70">
+        <v>10.335501000000001</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="2"/>
+        <v>10237.567200000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10.200136000000001</v>
+      </c>
+      <c r="D71" s="1">
+        <v>10.173019</v>
+      </c>
+      <c r="E71">
+        <v>10.182589</v>
+      </c>
+      <c r="F71">
+        <v>10.271986</v>
+      </c>
+      <c r="G71">
+        <v>10.320164999999999</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="2"/>
+        <v>10229.579000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>41.027774999999998</v>
+      </c>
+      <c r="D72">
+        <v>40.273705</v>
+      </c>
+      <c r="E72">
+        <v>41.103428000000001</v>
+      </c>
+      <c r="F72">
+        <v>40.798282999999998</v>
+      </c>
+      <c r="G72">
+        <v>40.173465999999998</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="2"/>
+        <v>40675.331399999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>41.025821999999998</v>
+      </c>
+      <c r="D73">
+        <v>40.173465999999998</v>
+      </c>
+      <c r="E73">
+        <v>41.206738000000001</v>
+      </c>
+      <c r="F73">
+        <v>40.670245999999999</v>
+      </c>
+      <c r="G73">
+        <v>41.103428000000001</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="2"/>
+        <v>40835.94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>40.907108000000001</v>
+      </c>
+      <c r="D74">
+        <v>40.181854000000001</v>
+      </c>
+      <c r="E74">
+        <v>40.651684000000003</v>
+      </c>
+      <c r="F74">
+        <v>40.661358</v>
+      </c>
+      <c r="G74">
+        <v>40.181854000000001</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="2"/>
+        <v>40516.771600000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>40.781447999999997</v>
+      </c>
+      <c r="D75">
+        <v>40.499003999999999</v>
+      </c>
+      <c r="E75">
+        <v>40.534084</v>
+      </c>
+      <c r="F75">
+        <v>40.539253000000002</v>
+      </c>
+      <c r="G75">
+        <v>40.197166000000003</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="2"/>
+        <v>40510.191000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>40.897292999999998</v>
+      </c>
+      <c r="D76">
+        <v>40.197166000000003</v>
+      </c>
+      <c r="E76">
+        <v>40.657519999999998</v>
+      </c>
+      <c r="F76">
+        <v>40.430987999999999</v>
+      </c>
+      <c r="G76">
+        <v>41.025821999999998</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="2"/>
+        <v>40641.757800000007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>363.50665300000003</v>
+      </c>
+      <c r="D77">
+        <v>359.14492799999999</v>
+      </c>
+      <c r="E77">
+        <v>360.64859000000001</v>
+      </c>
+      <c r="F77">
+        <v>365.25405899999998</v>
+      </c>
+      <c r="G77">
+        <v>361.53170799999998</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="2"/>
+        <v>362017.18760000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>364.42953499999999</v>
+      </c>
+      <c r="D78">
+        <v>361.53170799999998</v>
+      </c>
+      <c r="E78">
+        <v>360.57549999999998</v>
+      </c>
+      <c r="F78">
+        <v>362.19549599999999</v>
+      </c>
+      <c r="G78">
+        <v>362.693939</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="2"/>
+        <v>362285.23559999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>361.73782299999999</v>
+      </c>
+      <c r="D79">
+        <v>362.69921900000003</v>
+      </c>
+      <c r="E79">
+        <v>361.76748700000002</v>
+      </c>
+      <c r="F79">
+        <v>363.32076999999998</v>
+      </c>
+      <c r="G79">
+        <v>364.42953499999999</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="2"/>
+        <v>362790.96680000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>363.76873799999998</v>
+      </c>
+      <c r="D80">
+        <v>362.693939</v>
+      </c>
+      <c r="E80">
+        <v>365.05694599999998</v>
+      </c>
+      <c r="F80">
+        <v>365.42355300000003</v>
+      </c>
+      <c r="G80">
+        <v>360.57549999999998</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="2"/>
+        <v>363503.7352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>369.20590199999998</v>
+      </c>
+      <c r="D81">
+        <v>359.42663599999997</v>
+      </c>
+      <c r="E81">
+        <v>364.39126599999997</v>
+      </c>
+      <c r="F81">
+        <v>364.67074600000001</v>
+      </c>
+      <c r="G81">
+        <v>363.50665300000003</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="2"/>
+        <v>364240.24060000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>10</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B82" s="1">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E82">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F82">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G82">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" ref="H49:H115" si="3">SUM(C82:G82)/5 * 1000</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E83">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F83">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G83">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E84">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F84">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G84">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E85">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="F85">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G85">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E86">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F86">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="G86">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>100</v>
       </c>
-      <c r="C31" s="1">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>8.6560000000000005E-3</v>
-      </c>
-      <c r="F31">
-        <v>8.6789999999999992E-3</v>
-      </c>
-      <c r="G31">
-        <v>8.6730000000000002E-3</v>
-      </c>
-      <c r="H31">
-        <v>8.6789999999999992E-3</v>
-      </c>
-      <c r="I31" s="1">
-        <f>SUM(D31:H31)/5 * 1000</f>
-        <v>8.6874000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="B87" s="1">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.5410000000000001E-3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1.524E-3</v>
+      </c>
+      <c r="E87">
+        <v>1.5770000000000001E-3</v>
+      </c>
+      <c r="F87">
+        <v>1.5319999999999999E-3</v>
+      </c>
+      <c r="G87">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5427999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>100</v>
+      </c>
+      <c r="B88" s="1">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.464E-3</v>
+      </c>
+      <c r="E88">
+        <v>1.475E-3</v>
+      </c>
+      <c r="F88">
+        <v>1.475E-3</v>
+      </c>
+      <c r="G88">
+        <v>1.462E-3</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4671999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.459E-3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1.439E-3</v>
+      </c>
+      <c r="E89">
+        <v>1.4430000000000001E-3</v>
+      </c>
+      <c r="F89">
+        <v>1.482E-3</v>
+      </c>
+      <c r="G89">
+        <v>1.438E-3</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4522000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>100</v>
+      </c>
+      <c r="B90" s="1">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.47E-3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.4679999999999999E-3</v>
+      </c>
+      <c r="E90">
+        <v>1.4729999999999999E-3</v>
+      </c>
+      <c r="F90">
+        <v>1.4829999999999999E-3</v>
+      </c>
+      <c r="G90">
+        <v>1.467E-3</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4722</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>100</v>
+      </c>
+      <c r="B91" s="1">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.454E-3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1.441E-3</v>
+      </c>
+      <c r="E91">
+        <v>1.439E-3</v>
+      </c>
+      <c r="F91">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="G91">
+        <v>1.5529999999999999E-3</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>6.7019999999999996E-3</v>
+      </c>
+      <c r="D92">
+        <v>6.8019999999999999E-3</v>
+      </c>
+      <c r="E92">
+        <v>6.7739999999999996E-3</v>
+      </c>
+      <c r="F92">
+        <v>6.6670000000000002E-3</v>
+      </c>
+      <c r="G92">
+        <v>6.9109999999999996E-3</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7711999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>200</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>6.6080000000000002E-3</v>
+      </c>
+      <c r="D93">
+        <v>6.6639999999999998E-3</v>
+      </c>
+      <c r="E93">
+        <v>6.6860000000000001E-3</v>
+      </c>
+      <c r="F93">
+        <v>6.7860000000000004E-3</v>
+      </c>
+      <c r="G93">
+        <v>6.7559999999999999E-3</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>200</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>6.6670000000000002E-3</v>
+      </c>
+      <c r="D94">
+        <v>6.6249999999999998E-3</v>
+      </c>
+      <c r="E94">
+        <v>6.587E-3</v>
+      </c>
+      <c r="F94">
+        <v>6.8019999999999999E-3</v>
+      </c>
+      <c r="G94">
+        <v>6.5970000000000004E-3</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6556000000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>200</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>6.5909999999999996E-3</v>
+      </c>
+      <c r="D95">
+        <v>6.6730000000000001E-3</v>
+      </c>
+      <c r="E95">
+        <v>6.8230000000000001E-3</v>
+      </c>
+      <c r="F95">
+        <v>6.6639999999999998E-3</v>
+      </c>
+      <c r="G95">
+        <v>6.6270000000000001E-3</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6755999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>200</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D96">
+        <v>6.7860000000000004E-3</v>
+      </c>
+      <c r="E96">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F96">
+        <v>6.6080000000000002E-3</v>
+      </c>
+      <c r="G96">
+        <v>6.7070000000000003E-3</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6802000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>300</v>
       </c>
-      <c r="C32" s="1">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.25792700000000002</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.25408500000000001</v>
-      </c>
-      <c r="F32">
-        <v>0.25424099999999999</v>
-      </c>
-      <c r="G32">
-        <v>0.254745</v>
-      </c>
-      <c r="H32">
-        <v>0.25430599999999998</v>
-      </c>
-      <c r="I32" s="1">
-        <f>SUM(D32:H32)/5 * 1000</f>
-        <v>255.06079999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="B97" s="1">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3.6179000000000003E-2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3.6257999999999999E-2</v>
+      </c>
+      <c r="E97">
+        <v>3.5715999999999998E-2</v>
+      </c>
+      <c r="F97">
+        <v>3.6145999999999998E-2</v>
+      </c>
+      <c r="G97">
+        <v>3.6112999999999999E-2</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="3"/>
+        <v>36.0824</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>300</v>
       </c>
-      <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.25476700000000002</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.25410899999999997</v>
-      </c>
-      <c r="F33">
-        <v>0.25401699999999999</v>
-      </c>
-      <c r="G33">
-        <v>0.25545899999999999</v>
-      </c>
-      <c r="H33">
-        <v>0.25492700000000001</v>
-      </c>
-      <c r="I33" s="1">
-        <f>SUM(D33:H33)/5 * 1000</f>
-        <v>254.6558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="B98" s="1">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3.6450999999999997E-2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3.6274000000000001E-2</v>
+      </c>
+      <c r="E98">
+        <v>3.6637000000000003E-2</v>
+      </c>
+      <c r="F98">
+        <v>3.6724E-2</v>
+      </c>
+      <c r="G98">
+        <v>3.6456000000000002E-2</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="3"/>
+        <v>36.508399999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>300</v>
       </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.25435600000000003</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.25516800000000001</v>
-      </c>
-      <c r="F34">
-        <v>0.25438699999999997</v>
-      </c>
-      <c r="G34">
-        <v>0.25473000000000001</v>
-      </c>
-      <c r="H34">
-        <v>0.25662499999999999</v>
-      </c>
-      <c r="I34" s="1">
-        <f>SUM(D34:H34)/5 * 1000</f>
-        <v>255.05320000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="B99" s="1">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4.9347000000000002E-2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3.5631999999999997E-2</v>
+      </c>
+      <c r="E99">
+        <v>3.5154999999999999E-2</v>
+      </c>
+      <c r="F99">
+        <v>3.5347000000000003E-2</v>
+      </c>
+      <c r="G99">
+        <v>4.3189999999999999E-2</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="3"/>
+        <v>39.734199999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>300</v>
       </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.25310199999999999</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.253861</v>
-      </c>
-      <c r="F35">
-        <v>0.25397799999999998</v>
-      </c>
-      <c r="G35">
-        <v>0.25342599999999998</v>
-      </c>
-      <c r="H35">
-        <v>0.253774</v>
-      </c>
-      <c r="I35" s="1">
-        <f>SUM(D35:H35)/5 * 1000</f>
-        <v>253.62819999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>15</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="B100" s="1">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3.6072E-2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5.7292000000000003E-2</v>
+      </c>
+      <c r="E100">
+        <v>3.6028999999999999E-2</v>
+      </c>
+      <c r="F100">
+        <v>3.5618999999999998E-2</v>
+      </c>
+      <c r="G100">
+        <v>3.6720999999999997E-2</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="3"/>
+        <v>40.346599999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>300</v>
       </c>
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.254023</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.25394099999999997</v>
-      </c>
-      <c r="F36">
-        <v>0.25409999999999999</v>
-      </c>
-      <c r="G36">
-        <v>0.25430399999999997</v>
-      </c>
-      <c r="H36">
-        <v>0.25326700000000002</v>
-      </c>
-      <c r="I36" s="1">
-        <f>SUM(D36:H36)/5 * 1000</f>
-        <v>253.92700000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>16</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="B101" s="1">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3.6325000000000003E-2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3.6270999999999998E-2</v>
+      </c>
+      <c r="E101">
+        <v>3.6414000000000002E-2</v>
+      </c>
+      <c r="F101">
+        <v>3.6379000000000002E-2</v>
+      </c>
+      <c r="G101">
+        <v>3.6165000000000003E-2</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="3"/>
+        <v>36.3108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>400</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>5.3504000000000003E-2</v>
+      </c>
+      <c r="D102">
+        <v>5.3987E-2</v>
+      </c>
+      <c r="E102">
+        <v>5.4086000000000002E-2</v>
+      </c>
+      <c r="F102">
+        <v>5.2535999999999999E-2</v>
+      </c>
+      <c r="G102">
+        <v>5.4024000000000003E-2</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="3"/>
+        <v>53.627400000000009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>400</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>5.3323000000000002E-2</v>
+      </c>
+      <c r="D103">
+        <v>5.2574000000000003E-2</v>
+      </c>
+      <c r="E103">
+        <v>5.2535999999999999E-2</v>
+      </c>
+      <c r="F103">
+        <v>5.4366999999999999E-2</v>
+      </c>
+      <c r="G103">
+        <v>5.2574000000000003E-2</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="3"/>
+        <v>53.074799999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>400</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>5.3739000000000002E-2</v>
+      </c>
+      <c r="D104">
+        <v>5.4332999999999999E-2</v>
+      </c>
+      <c r="E104">
+        <v>5.3769999999999998E-2</v>
+      </c>
+      <c r="F104">
+        <v>5.3912000000000002E-2</v>
+      </c>
+      <c r="G104">
+        <v>5.3837000000000003E-2</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="3"/>
+        <v>53.918200000000006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>400</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>5.3124999999999999E-2</v>
+      </c>
+      <c r="D105">
+        <v>5.4366999999999999E-2</v>
+      </c>
+      <c r="E105">
+        <v>5.2887000000000003E-2</v>
+      </c>
+      <c r="F105">
+        <v>5.3987E-2</v>
+      </c>
+      <c r="G105">
+        <v>5.3081000000000003E-2</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="3"/>
+        <v>53.489399999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>400</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>5.3912000000000002E-2</v>
+      </c>
+      <c r="D106">
+        <v>5.4049E-2</v>
+      </c>
+      <c r="E106">
+        <v>5.4028E-2</v>
+      </c>
+      <c r="F106">
+        <v>5.3323000000000002E-2</v>
+      </c>
+      <c r="G106">
+        <v>5.4003000000000002E-2</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="3"/>
+        <v>53.863000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>500</v>
       </c>
-      <c r="C37" s="1">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.215087</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.2123600000000001</v>
-      </c>
-      <c r="F37">
-        <v>1.21323</v>
-      </c>
-      <c r="G37">
-        <v>1.215093</v>
-      </c>
-      <c r="H37">
-        <v>1.2195590000000001</v>
-      </c>
-      <c r="I37" s="1">
-        <f>SUM(D37:H37)/5 * 1000</f>
-        <v>1215.0658000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="B107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.15612100000000001</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.15496299999999999</v>
+      </c>
+      <c r="E107">
+        <v>0.15570999999999999</v>
+      </c>
+      <c r="F107">
+        <v>0.15637499999999999</v>
+      </c>
+      <c r="G107">
+        <v>0.15648100000000001</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="3"/>
+        <v>155.93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>500</v>
       </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.2168380000000001</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.2122250000000001</v>
-      </c>
-      <c r="F38">
-        <v>1.217681</v>
-      </c>
-      <c r="G38">
-        <v>1.223519</v>
-      </c>
-      <c r="H38">
-        <v>1.2176169999999999</v>
-      </c>
-      <c r="I38" s="1">
-        <f>SUM(D38:H38)/5 * 1000</f>
-        <v>1217.5759999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="B108" s="1">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.15675800000000001</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.15568599999999999</v>
+      </c>
+      <c r="E108">
+        <v>0.15572900000000001</v>
+      </c>
+      <c r="F108">
+        <v>0.15731700000000001</v>
+      </c>
+      <c r="G108">
+        <v>0.156332</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" si="3"/>
+        <v>156.36440000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>500</v>
       </c>
-      <c r="C39" s="1">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.218008</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1.21587</v>
-      </c>
-      <c r="F39">
-        <v>1.2160820000000001</v>
-      </c>
-      <c r="G39">
-        <v>1.2222459999999999</v>
-      </c>
-      <c r="H39">
-        <v>1.226769</v>
-      </c>
-      <c r="I39" s="1">
-        <f>SUM(D39:H39)/5 * 1000</f>
-        <v>1219.7950000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>19</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="B109" s="1">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.15585399999999999</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.15603400000000001</v>
+      </c>
+      <c r="E109">
+        <v>0.15663199999999999</v>
+      </c>
+      <c r="F109">
+        <v>0.15604899999999999</v>
+      </c>
+      <c r="G109">
+        <v>0.15550900000000001</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="3"/>
+        <v>156.01559999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
         <v>500</v>
       </c>
-      <c r="C40" s="1">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.2148509999999999</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.2146129999999999</v>
-      </c>
-      <c r="F40">
-        <v>1.2163679999999999</v>
-      </c>
-      <c r="G40">
-        <v>1.221962</v>
-      </c>
-      <c r="H40">
-        <v>1.2165440000000001</v>
-      </c>
-      <c r="I40" s="1">
-        <f>SUM(D40:H40)/5 * 1000</f>
-        <v>1216.8676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="B110" s="1">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.160049</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.15978700000000001</v>
+      </c>
+      <c r="E110">
+        <v>0.15887100000000001</v>
+      </c>
+      <c r="F110">
+        <v>0.15954699999999999</v>
+      </c>
+      <c r="G110">
+        <v>0.15915499999999999</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="3"/>
+        <v>159.48180000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
         <v>500</v>
       </c>
-      <c r="C41" s="1">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1.2199230000000001</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1.2186170000000001</v>
-      </c>
-      <c r="F41">
-        <v>1.2227220000000001</v>
-      </c>
-      <c r="G41">
-        <v>1.2237290000000001</v>
-      </c>
-      <c r="H41">
-        <v>1.2236880000000001</v>
-      </c>
-      <c r="I41" s="1">
-        <f>SUM(D41:H41)/5 * 1000</f>
-        <v>1221.7357999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>21</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="B111" s="1">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.154164</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.15439700000000001</v>
+      </c>
+      <c r="E111">
+        <v>0.15492300000000001</v>
+      </c>
+      <c r="F111">
+        <v>0.154172</v>
+      </c>
+      <c r="G111">
+        <v>0.15470700000000001</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="3"/>
+        <v>154.47260000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>800</v>
+      </c>
+      <c r="B112" s="1">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>0.47641800000000001</v>
+      </c>
+      <c r="D112">
+        <v>0.48278100000000002</v>
+      </c>
+      <c r="E112">
+        <v>0.47755700000000001</v>
+      </c>
+      <c r="F112">
+        <v>0.47785300000000003</v>
+      </c>
+      <c r="G112">
+        <v>0.47611999999999999</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="3"/>
+        <v>478.14579999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>800</v>
+      </c>
+      <c r="B113" s="1">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>0.48180899999999999</v>
+      </c>
+      <c r="D113">
+        <v>0.48136600000000002</v>
+      </c>
+      <c r="E113">
+        <v>0.48862</v>
+      </c>
+      <c r="F113">
+        <v>0.47303299999999998</v>
+      </c>
+      <c r="G113">
+        <v>0.47983300000000001</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="3"/>
+        <v>480.93219999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>800</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>0.47303299999999998</v>
+      </c>
+      <c r="D114">
+        <v>0.48175899999999999</v>
+      </c>
+      <c r="E114">
+        <v>0.47686299999999998</v>
+      </c>
+      <c r="F114">
+        <v>0.47755700000000001</v>
+      </c>
+      <c r="G114">
+        <v>0.47628999999999999</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="3"/>
+        <v>477.10039999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>800</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>0.47660599999999997</v>
+      </c>
+      <c r="D115">
+        <v>0.47785300000000003</v>
+      </c>
+      <c r="E115">
+        <v>0.479798</v>
+      </c>
+      <c r="F115">
+        <v>0.48862</v>
+      </c>
+      <c r="G115">
+        <v>0.478099</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="3"/>
+        <v>480.1952</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>800</v>
+      </c>
+      <c r="B116" s="1">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>0.47654099999999999</v>
+      </c>
+      <c r="D116">
+        <v>0.475688</v>
+      </c>
+      <c r="E116">
+        <v>0.47910599999999998</v>
+      </c>
+      <c r="F116">
+        <v>0.475688</v>
+      </c>
+      <c r="G116">
+        <v>0.471526</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" ref="H116:H131" si="4">SUM(C116:G116)/5 * 1000</f>
+        <v>475.70980000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>1000</v>
       </c>
-      <c r="C42" s="1">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1">
-        <v>10.193158</v>
-      </c>
-      <c r="E42" s="1">
-        <v>10.192660999999999</v>
-      </c>
-      <c r="F42">
-        <v>10.183419000000001</v>
-      </c>
-      <c r="G42">
-        <v>10.308341</v>
-      </c>
-      <c r="H42">
-        <v>10.28764</v>
-      </c>
-      <c r="I42" s="1">
-        <f>SUM(D42:H42)/5 * 1000</f>
-        <v>10233.043799999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>21</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="B117" s="1">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1.135966</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1.1309400000000001</v>
+      </c>
+      <c r="E117">
+        <v>1.1331610000000001</v>
+      </c>
+      <c r="F117">
+        <v>1.1537170000000001</v>
+      </c>
+      <c r="G117">
+        <v>1.1385730000000001</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="4"/>
+        <v>1138.4714000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>1000</v>
       </c>
-      <c r="C43" s="1">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1">
-        <v>10.189745</v>
-      </c>
-      <c r="E43" s="1">
-        <v>10.173273</v>
-      </c>
-      <c r="F43">
-        <v>10.188693000000001</v>
-      </c>
-      <c r="G43">
-        <v>10.286883</v>
-      </c>
-      <c r="H43">
-        <v>10.317207</v>
-      </c>
-      <c r="I43" s="1">
-        <f>SUM(D43:H43)/5 * 1000</f>
-        <v>10231.1602</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>22</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="B118" s="1">
+        <v>5</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1.144139</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1.1448149999999999</v>
+      </c>
+      <c r="E118">
+        <v>1.14781</v>
+      </c>
+      <c r="F118">
+        <v>1.158199</v>
+      </c>
+      <c r="G118">
+        <v>1.154568</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="4"/>
+        <v>1149.9061999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>1000</v>
       </c>
-      <c r="C44" s="1">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1">
-        <v>10.205686999999999</v>
-      </c>
-      <c r="E44" s="1">
-        <v>10.186142</v>
-      </c>
-      <c r="F44">
-        <v>10.196533000000001</v>
-      </c>
-      <c r="G44">
-        <v>10.293635</v>
-      </c>
-      <c r="H44">
-        <v>10.317036999999999</v>
-      </c>
-      <c r="I44" s="1">
-        <f>SUM(D44:H44)/5 * 1000</f>
-        <v>10239.8068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>23</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="B119" s="1">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.1357139999999999</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1.133222</v>
+      </c>
+      <c r="E119">
+        <v>1.135901</v>
+      </c>
+      <c r="F119">
+        <v>1.1452310000000001</v>
+      </c>
+      <c r="G119">
+        <v>1.1472279999999999</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="4"/>
+        <v>1139.4592</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>1000</v>
       </c>
-      <c r="C45" s="1">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1">
-        <v>10.216113</v>
-      </c>
-      <c r="E45" s="1">
-        <v>10.184437000000001</v>
-      </c>
-      <c r="F45">
-        <v>10.174146</v>
-      </c>
-      <c r="G45">
-        <v>10.277639000000001</v>
-      </c>
-      <c r="H45">
-        <v>10.335501000000001</v>
-      </c>
-      <c r="I45" s="1">
-        <f>SUM(D45:H45)/5 * 1000</f>
-        <v>10237.567200000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>23</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="B120" s="1">
+        <v>5</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.1199600000000001</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1.126344</v>
+      </c>
+      <c r="E120">
+        <v>1.1224270000000001</v>
+      </c>
+      <c r="F120">
+        <v>1.1495649999999999</v>
+      </c>
+      <c r="G120">
+        <v>1.13503</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" si="4"/>
+        <v>1130.6651999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="1">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
-        <v>10.200136000000001</v>
-      </c>
-      <c r="E46" s="1">
-        <v>10.173019</v>
-      </c>
-      <c r="F46">
-        <v>10.182589</v>
-      </c>
-      <c r="G46">
-        <v>10.271986</v>
-      </c>
-      <c r="H46">
-        <v>10.320164999999999</v>
-      </c>
-      <c r="I46" s="1">
-        <f>SUM(D46:H46)/5 * 1000</f>
-        <v>10229.579000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1">
-        <v>10</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="E47" s="1">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="F47">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G47">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="H47">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="I47" s="1">
-        <f>SUM(D47:H47)/5 * 1000</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1">
-        <v>10</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="E48" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="F48">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G48">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="H48">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="I48" s="1">
-        <f>SUM(D48:H48)/5 * 1000</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>3</v>
-      </c>
-      <c r="B49" s="1">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="F49">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G49">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="H49">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="I49" s="1">
-        <f>SUM(D49:H49)/5 * 1000</f>
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>4</v>
-      </c>
-      <c r="B50" s="1">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="E50" s="1">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="F50">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="G50">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="H50">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="I50" s="1">
-        <f>SUM(D50:H50)/5 * 1000</f>
-        <v>4.9999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>5</v>
-      </c>
-      <c r="B51" s="1">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="F51">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="G51">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="H51">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="I51" s="1">
-        <f>SUM(D51:H51)/5 * 1000</f>
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>6</v>
-      </c>
-      <c r="B52" s="1">
-        <v>100</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.5410000000000001E-3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.524E-3</v>
-      </c>
-      <c r="F52">
-        <v>1.5770000000000001E-3</v>
-      </c>
-      <c r="G52">
-        <v>1.5319999999999999E-3</v>
-      </c>
-      <c r="H52">
-        <v>1.5399999999999999E-3</v>
-      </c>
-      <c r="I52" s="1">
-        <f>SUM(D52:H52)/5 * 1000</f>
-        <v>1.5427999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>7</v>
-      </c>
-      <c r="B53" s="1">
-        <v>100</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.4599999999999999E-3</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.464E-3</v>
-      </c>
-      <c r="F53">
-        <v>1.475E-3</v>
-      </c>
-      <c r="G53">
-        <v>1.475E-3</v>
-      </c>
-      <c r="H53">
-        <v>1.462E-3</v>
-      </c>
-      <c r="I53" s="1">
-        <f>SUM(D53:H53)/5 * 1000</f>
-        <v>1.4671999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>8</v>
-      </c>
-      <c r="B54" s="1">
-        <v>100</v>
-      </c>
-      <c r="C54" s="1">
-        <v>5</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.459E-3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.439E-3</v>
-      </c>
-      <c r="F54">
-        <v>1.4430000000000001E-3</v>
-      </c>
-      <c r="G54">
-        <v>1.482E-3</v>
-      </c>
-      <c r="H54">
-        <v>1.438E-3</v>
-      </c>
-      <c r="I54" s="1">
-        <f>SUM(D54:H54)/5 * 1000</f>
-        <v>1.4522000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1">
-        <v>100</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1.47E-3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1.4679999999999999E-3</v>
-      </c>
-      <c r="F55">
-        <v>1.4729999999999999E-3</v>
-      </c>
-      <c r="G55">
-        <v>1.4829999999999999E-3</v>
-      </c>
-      <c r="H55">
-        <v>1.467E-3</v>
-      </c>
-      <c r="I55" s="1">
-        <f>SUM(D55:H55)/5 * 1000</f>
-        <v>1.4722</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>10</v>
-      </c>
-      <c r="B56" s="1">
-        <v>100</v>
-      </c>
-      <c r="C56" s="1">
-        <v>5</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1.454E-3</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1.441E-3</v>
-      </c>
-      <c r="F56">
-        <v>1.439E-3</v>
-      </c>
-      <c r="G56">
-        <v>1.5100000000000001E-3</v>
-      </c>
-      <c r="H56">
-        <v>1.5529999999999999E-3</v>
-      </c>
-      <c r="I56" s="1">
-        <f>SUM(D56:H56)/5 * 1000</f>
-        <v>1.4794</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1">
-        <v>300</v>
-      </c>
-      <c r="C57" s="1">
-        <v>5</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3.6179000000000003E-2</v>
-      </c>
-      <c r="E57" s="1">
-        <v>3.6257999999999999E-2</v>
-      </c>
-      <c r="F57">
-        <v>3.5715999999999998E-2</v>
-      </c>
-      <c r="G57">
-        <v>3.6145999999999998E-2</v>
-      </c>
-      <c r="H57">
-        <v>3.6112999999999999E-2</v>
-      </c>
-      <c r="I57" s="1">
-        <f>SUM(D57:H57)/5 * 1000</f>
-        <v>36.0824</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1">
-        <v>300</v>
-      </c>
-      <c r="C58" s="1">
-        <v>5</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3.6450999999999997E-2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>3.6274000000000001E-2</v>
-      </c>
-      <c r="F58">
-        <v>3.6637000000000003E-2</v>
-      </c>
-      <c r="G58">
-        <v>3.6724E-2</v>
-      </c>
-      <c r="H58">
-        <v>3.6456000000000002E-2</v>
-      </c>
-      <c r="I58" s="1">
-        <f>SUM(D58:H58)/5 * 1000</f>
-        <v>36.508399999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1">
-        <v>300</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1">
-        <v>4.9347000000000002E-2</v>
-      </c>
-      <c r="E59" s="1">
-        <v>3.5631999999999997E-2</v>
-      </c>
-      <c r="F59">
-        <v>3.5154999999999999E-2</v>
-      </c>
-      <c r="G59">
-        <v>3.5347000000000003E-2</v>
-      </c>
-      <c r="H59">
-        <v>4.3189999999999999E-2</v>
-      </c>
-      <c r="I59" s="1">
-        <f>SUM(D59:H59)/5 * 1000</f>
-        <v>39.734199999999994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>14</v>
-      </c>
-      <c r="B60" s="1">
-        <v>300</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3.6072E-2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>5.7292000000000003E-2</v>
-      </c>
-      <c r="F60">
-        <v>3.6028999999999999E-2</v>
-      </c>
-      <c r="G60">
-        <v>3.5618999999999998E-2</v>
-      </c>
-      <c r="H60">
-        <v>3.6720999999999997E-2</v>
-      </c>
-      <c r="I60" s="1">
-        <f>SUM(D60:H60)/5 * 1000</f>
-        <v>40.346599999999995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>15</v>
-      </c>
-      <c r="B61" s="1">
-        <v>300</v>
-      </c>
-      <c r="C61" s="1">
-        <v>5</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3.6325000000000003E-2</v>
-      </c>
-      <c r="E61" s="1">
-        <v>3.6270999999999998E-2</v>
-      </c>
-      <c r="F61">
-        <v>3.6414000000000002E-2</v>
-      </c>
-      <c r="G61">
-        <v>3.6379000000000002E-2</v>
-      </c>
-      <c r="H61">
-        <v>3.6165000000000003E-2</v>
-      </c>
-      <c r="I61" s="1">
-        <f>SUM(D61:H61)/5 * 1000</f>
-        <v>36.3108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>16</v>
-      </c>
-      <c r="B62" s="1">
-        <v>500</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.15612100000000001</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0.15496299999999999</v>
-      </c>
-      <c r="F62">
-        <v>0.15570999999999999</v>
-      </c>
-      <c r="G62">
-        <v>0.15637499999999999</v>
-      </c>
-      <c r="H62">
-        <v>0.15648100000000001</v>
-      </c>
-      <c r="I62" s="1">
-        <f>SUM(D62:H62)/5 * 1000</f>
-        <v>155.93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>17</v>
-      </c>
-      <c r="B63" s="1">
-        <v>500</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.15675800000000001</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0.15568599999999999</v>
-      </c>
-      <c r="F63">
-        <v>0.15572900000000001</v>
-      </c>
-      <c r="G63">
-        <v>0.15731700000000001</v>
-      </c>
-      <c r="H63">
-        <v>0.156332</v>
-      </c>
-      <c r="I63" s="1">
-        <f>SUM(D63:H63)/5 * 1000</f>
-        <v>156.36440000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>18</v>
-      </c>
-      <c r="B64" s="1">
-        <v>500</v>
-      </c>
-      <c r="C64" s="1">
-        <v>5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.15585399999999999</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.15603400000000001</v>
-      </c>
-      <c r="F64">
-        <v>0.15663199999999999</v>
-      </c>
-      <c r="G64">
-        <v>0.15604899999999999</v>
-      </c>
-      <c r="H64">
-        <v>0.15550900000000001</v>
-      </c>
-      <c r="I64" s="1">
-        <f>SUM(D64:H64)/5 * 1000</f>
-        <v>156.01559999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>19</v>
-      </c>
-      <c r="B65" s="1">
-        <v>500</v>
-      </c>
-      <c r="C65" s="1">
-        <v>5</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.160049</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.15978700000000001</v>
-      </c>
-      <c r="F65">
-        <v>0.15887100000000001</v>
-      </c>
-      <c r="G65">
-        <v>0.15954699999999999</v>
-      </c>
-      <c r="H65">
-        <v>0.15915499999999999</v>
-      </c>
-      <c r="I65" s="1">
-        <f>SUM(D65:H65)/5 * 1000</f>
-        <v>159.48180000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>20</v>
-      </c>
-      <c r="B66" s="1">
-        <v>500</v>
-      </c>
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.154164</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.15439700000000001</v>
-      </c>
-      <c r="F66">
-        <v>0.15492300000000001</v>
-      </c>
-      <c r="G66">
-        <v>0.154172</v>
-      </c>
-      <c r="H66">
-        <v>0.15470700000000001</v>
-      </c>
-      <c r="I66" s="1">
-        <f>SUM(D66:H66)/5 * 1000</f>
-        <v>154.47260000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>21</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C67" s="1">
-        <v>5</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1.135966</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1.1309400000000001</v>
-      </c>
-      <c r="F67">
-        <v>1.1331610000000001</v>
-      </c>
-      <c r="G67">
-        <v>1.1537170000000001</v>
-      </c>
-      <c r="H67">
-        <v>1.1385730000000001</v>
-      </c>
-      <c r="I67" s="1">
-        <f>SUM(D67:H67)/5 * 1000</f>
-        <v>1138.4714000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>22</v>
-      </c>
-      <c r="B68" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1.144139</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1.1448149999999999</v>
-      </c>
-      <c r="F68">
-        <v>1.14781</v>
-      </c>
-      <c r="G68">
-        <v>1.158199</v>
-      </c>
-      <c r="H68">
-        <v>1.154568</v>
-      </c>
-      <c r="I68" s="1">
-        <f>SUM(D68:H68)/5 * 1000</f>
-        <v>1149.9061999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>22</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.1357139999999999</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1.133222</v>
-      </c>
-      <c r="F69">
-        <v>1.135901</v>
-      </c>
-      <c r="G69">
-        <v>1.1452310000000001</v>
-      </c>
-      <c r="H69">
-        <v>1.1472279999999999</v>
-      </c>
-      <c r="I69" s="1">
-        <f>SUM(D69:H69)/5 * 1000</f>
-        <v>1139.4592</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>23</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C70" s="1">
-        <v>5</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.1199600000000001</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1.126344</v>
-      </c>
-      <c r="F70">
-        <v>1.1224270000000001</v>
-      </c>
-      <c r="G70">
-        <v>1.1495649999999999</v>
-      </c>
-      <c r="H70">
-        <v>1.13503</v>
-      </c>
-      <c r="I70" s="1">
-        <f>SUM(D70:H70)/5 * 1000</f>
-        <v>1130.6651999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>24</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C71" s="1">
-        <v>5</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B121" s="1">
+        <v>5</v>
+      </c>
+      <c r="C121" s="1">
         <v>1.1231629999999999</v>
       </c>
-      <c r="E71" s="1">
+      <c r="D121" s="1">
         <v>1.121391</v>
       </c>
-      <c r="F71">
+      <c r="E121">
         <v>1.120525</v>
       </c>
-      <c r="G71">
+      <c r="F121">
         <v>1.1291279999999999</v>
       </c>
-      <c r="H71">
+      <c r="G121">
         <v>1.137087</v>
       </c>
-      <c r="I71" s="1">
-        <f>SUM(D71:H71)/5 * 1000</f>
+      <c r="H121" s="1">
+        <f t="shared" si="4"/>
         <v>1126.2588000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G72"/>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B122" s="1">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>6.7751299999999999</v>
+      </c>
+      <c r="D122">
+        <v>6.7132149999999999</v>
+      </c>
+      <c r="E122">
+        <v>7.1854370000000003</v>
+      </c>
+      <c r="F122">
+        <v>6.7590539999999999</v>
+      </c>
+      <c r="G122">
+        <v>6.9187070000000004</v>
+      </c>
+      <c r="H122" s="1">
+        <f t="shared" si="4"/>
+        <v>6870.3085999999994</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>6.705279</v>
+      </c>
+      <c r="D123">
+        <v>6.7590539999999999</v>
+      </c>
+      <c r="E123">
+        <v>7.0085259999999998</v>
+      </c>
+      <c r="F123">
+        <v>7.0085259999999998</v>
+      </c>
+      <c r="G123">
+        <v>6.8979629999999998</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" si="4"/>
+        <v>6875.8696</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>6.8202449999999999</v>
+      </c>
+      <c r="D124">
+        <v>6.730594</v>
+      </c>
+      <c r="E124">
+        <v>7.0312390000000002</v>
+      </c>
+      <c r="F124">
+        <v>6.7132149999999999</v>
+      </c>
+      <c r="G124">
+        <v>7.0467050000000002</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="4"/>
+        <v>6868.3996000000006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B125" s="1">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>6.8684120000000002</v>
+      </c>
+      <c r="D125">
+        <v>6.7392120000000002</v>
+      </c>
+      <c r="E125">
+        <v>7.0123579999999999</v>
+      </c>
+      <c r="F125">
+        <v>6.7658259999999997</v>
+      </c>
+      <c r="G125">
+        <v>6.9150239999999998</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="4"/>
+        <v>6860.1664000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>6.9858779999999996</v>
+      </c>
+      <c r="D126">
+        <v>6.7658259999999997</v>
+      </c>
+      <c r="E126">
+        <v>7.0556900000000002</v>
+      </c>
+      <c r="F126">
+        <v>6.8202449999999999</v>
+      </c>
+      <c r="G126">
+        <v>7.0820850000000002</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="4"/>
+        <v>6941.9448000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>81.337615999999997</v>
+      </c>
+      <c r="D127">
+        <v>82.702163999999996</v>
+      </c>
+      <c r="E127">
+        <v>82.251662999999994</v>
+      </c>
+      <c r="F127">
+        <v>81.337615999999997</v>
+      </c>
+      <c r="G127">
+        <v>82.515029999999996</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="4"/>
+        <v>82028.817800000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>81.366569999999996</v>
+      </c>
+      <c r="D128">
+        <v>82.473312000000007</v>
+      </c>
+      <c r="E128">
+        <v>81.948425</v>
+      </c>
+      <c r="F128">
+        <v>82.473312000000007</v>
+      </c>
+      <c r="G128">
+        <v>82.410172000000003</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="4"/>
+        <v>82134.358199999988</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B129" s="1">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>81.409362999999999</v>
+      </c>
+      <c r="D129">
+        <v>83.137282999999996</v>
+      </c>
+      <c r="E129">
+        <v>82.637519999999995</v>
+      </c>
+      <c r="F129">
+        <v>82.305931000000001</v>
+      </c>
+      <c r="G129">
+        <v>82.843597000000003</v>
+      </c>
+      <c r="H129" s="1">
+        <f t="shared" si="4"/>
+        <v>82466.738800000006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B130" s="1">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>81.199066000000002</v>
+      </c>
+      <c r="D130">
+        <v>82.305931000000001</v>
+      </c>
+      <c r="E130">
+        <v>82.215187</v>
+      </c>
+      <c r="F130">
+        <v>81.366569999999996</v>
+      </c>
+      <c r="G130">
+        <v>82.246666000000005</v>
+      </c>
+      <c r="H130" s="1">
+        <f t="shared" si="4"/>
+        <v>81866.684000000008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B131" s="1">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>81.498351999999997</v>
+      </c>
+      <c r="D131">
+        <v>82.461265999999995</v>
+      </c>
+      <c r="E131">
+        <v>82.595900999999998</v>
+      </c>
+      <c r="F131">
+        <v>82.251662999999994</v>
+      </c>
+      <c r="G131">
+        <v>82.628647000000001</v>
+      </c>
+      <c r="H131" s="1">
+        <f t="shared" si="4"/>
+        <v>82287.165800000002</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I72" xr:uid="{5D57A505-C504-47CF-8A9D-DAF255022F7B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I72">
-      <sortCondition ref="C1:C72"/>
+  <autoFilter ref="A1:H127" xr:uid="{5D57A505-C504-47CF-8A9D-DAF255022F7B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H127">
+      <sortCondition ref="B1:B127"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:M136">
+    <sortCondition ref="J2:J136"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6226,7 +8831,7 @@
   <dimension ref="B1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6805,7 +9410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DD83A2-0F5C-4F3D-A132-E13B692E766C}">
   <dimension ref="C1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G70"/>
     </sheetView>
   </sheetViews>

--- a/HW/result.xlsx
+++ b/HW/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\2020_2학기\알고리즘\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B1D3F-030B-432F-ADE6-BB3599A71C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29EDAEF-7B9E-421F-8D09-B416A5A3121A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
     <t>L / M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>이전 데이터 대비 시간 증가율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이론 상 시간 증가율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +103,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +116,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -128,10 +143,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,8 +158,15 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,7 +380,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>총정리!$L$1</c:f>
+              <c:f>총정리!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -417,7 +442,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>총정리!$L$2:$L$11</c:f>
+              <c:f>총정리!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -466,7 +491,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>총정리!$M$1</c:f>
+              <c:f>총정리!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -528,7 +553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>총정리!$M$2:$M$11</c:f>
+              <c:f>총정리!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -827,11 +852,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>N  - O</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t>(n</a:t>
+              <a:t> O(n</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="30000"/>
@@ -839,19 +860,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t>logn)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>수행시간</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t> / O(n</a:t>
+              <a:t>logn) / O(n</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="30000"/>
@@ -863,9 +872,9 @@
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
-              <a:t>수행시간</a:t>
+              <a:t>수행시간 비</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -909,7 +918,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>총정리!$N$1</c:f>
+              <c:f>총정리!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -932,10 +941,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>총정리!$J$2:$J$138</c:f>
+              <c:f>총정리!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="137"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -971,10 +980,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>총정리!$N$2:$N$138</c:f>
+              <c:f>총정리!$T$2:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="137"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.009345794392523</c:v>
                 </c:pt>
@@ -1011,7 +1020,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01C6-4F73-9D60-C860E0446A3B}"/>
+              <c16:uniqueId val="{00000000-0158-42B5-A46D-1F4D9D57ECDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1023,11 +1032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232981920"/>
-        <c:axId val="87191408"/>
+        <c:axId val="238656640"/>
+        <c:axId val="41485936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232981920"/>
+        <c:axId val="238656640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1093,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87191408"/>
+        <c:crossAx val="41485936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87191408"/>
+        <c:axId val="41485936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1155,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232981920"/>
+        <c:crossAx val="238656640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1158,6 +1167,2103 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>수행시간 증가율</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>( O(n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="30000"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>) )</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>이론 상 시간 증가율</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$L$4:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1604938271604937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.44140625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BFA-4A5F-89DF-26D2CB63775D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>이전 데이터 대비 실제 시간 증가율</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$M$4:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.989996749721655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1247749525569422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.07597750584176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4866069884050144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BFA-4A5F-89DF-26D2CB63775D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="310341264"/>
+        <c:axId val="308864768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="310341264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308864768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="308864768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310341264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>수행시간 증가율 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>( O(n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>logn) )</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>이론 상 시간 증가율</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$O$4:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.2419624074659374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2807412331084249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1365217677107391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72637874776760991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.208558108984223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72637874776760991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.208558108984223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2419624074659374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB99-4414-BDA6-419948983D5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>총정리!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>이전 데이터 대비 시간 증가율</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$P$4:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.4547486135020611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8761325347452811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1479320142259248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.228809108791074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7475677799663836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2417350102201001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1784242165952987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9292754252507684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB99-4414-BDA6-419948983D5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="313512672"/>
+        <c:axId val="308841056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="313512672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308841056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="308841056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313512672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>수행시간 증가율 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>( O(n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) )</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>총정리!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>이론 상 시간 증가율</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$R$4:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3703703703703702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.953125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.096000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.953125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.096000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2593-4C47-BFB1-55B33DCC347B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>총정리!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>이전 데이터 대비 시간 증가율</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$S$4:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.5162534732525828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6441972845597412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4179775471154987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9191932912594112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0578962816152697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3764893815993209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.054201788050606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.935598005955775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2593-4C47-BFB1-55B33DCC347B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="315335776"/>
+        <c:axId val="308858112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="315335776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308858112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="308858112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315335776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>데이터 증가비율에 따른 수행시간 증가율</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>총정리!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O(n^4) 알고리즘</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3237.3805970149247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.989996749721655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1247749525569422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.07597750584176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4866069884050144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15F3-471D-A42E-4E394F798A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>총정리!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O(n^3*logn) 알고리즘</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$P$3:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>683.72360248447217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4547486135020611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8761325347452811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1479320142259248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.228809108791074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7475677799663836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2417350102201001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1784242165952987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9292754252507684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15F3-471D-A42E-4E394F798A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>총정리!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O(n^3) 알고리즘</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>총정리!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>총정리!$S$3:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>346.43925233644865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5162534732525828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6441972845597412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4179775471154987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9191932912594112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0578962816152697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3764893815993209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.054201788050606</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.935598005955775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15F3-471D-A42E-4E394F798A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="238881936"/>
+        <c:axId val="1915212944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="238881936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1915212944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1915212944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238881936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1282,6 +3388,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2314,19 +4580,2083 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1662112</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>112658</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2354,23 +6684,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C90233-A42B-434E-B430-12921156FB1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8119BE6B-D054-4553-83B0-7DDF4F598586}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,6 +6713,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5D9AE4-15C8-4540-B8C3-CE2B2DE2C146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1404937</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44B4C87-99B9-4AB9-8F8B-AE2F3E843C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1614487</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>957262</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3694EB39-422D-41D7-AFF3-6727FAC3CF86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1201831</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>197783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1389530</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="차트 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0393C30B-50EC-4CEB-91D8-72D70C9CFA0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2654,10 +7128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:T131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2666,13 +7140,15 @@
     <col min="6" max="9" width="9" style="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="11" width="24.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="23.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.125" style="4" customWidth="1"/>
+    <col min="14" max="16" width="22.75" style="1" customWidth="1"/>
+    <col min="17" max="18" width="23.125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="21.5" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2697,20 +7173,41 @@
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -2743,20 +7240,20 @@
         <f>SUM(H2:H6) /5</f>
         <v>1.072E-2</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <f>SUM(H32:H36)/5</f>
         <v>1.2879999999999999E-2</v>
       </c>
-      <c r="M2" s="1">
+      <c r="Q2" s="1">
         <f>SUM(H82:H86)/5</f>
         <v>4.28E-3</v>
       </c>
-      <c r="N2" s="1">
-        <f>L2/M2</f>
+      <c r="T2" s="1">
+        <f>N2/Q2</f>
         <v>3.009345794392523</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2782,6 +7279,10 @@
         <f t="shared" si="0"/>
         <v>1.12E-2</v>
       </c>
+      <c r="I3" s="1">
+        <f>J3/J2</f>
+        <v>10</v>
+      </c>
       <c r="J3" s="3">
         <v>100</v>
       </c>
@@ -2790,19 +7291,43 @@
         <v>34.704719999999995</v>
       </c>
       <c r="L3" s="1">
+        <f>POWER(J3/J2,4)</f>
+        <v>10000</v>
+      </c>
+      <c r="M3" s="5">
+        <f>K3/K2</f>
+        <v>3237.3805970149247</v>
+      </c>
+      <c r="N3" s="1">
         <f>SUM(H37:H41)/5</f>
         <v>8.8063600000000015</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
+        <f>POWER(J3/J2,3)*LOG(J3/J2,EXP(0.6))</f>
+        <v>3837.6418216567431</v>
+      </c>
+      <c r="P3" s="1">
+        <f>N3/N2</f>
+        <v>683.72360248447217</v>
+      </c>
+      <c r="Q3" s="1">
         <f>SUM(H87:H91)/5</f>
         <v>1.4827600000000001</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N11" si="1">L3/M3</f>
+      <c r="R3" s="1">
+        <f>POWER(J3/J2,3)</f>
+        <v>1000</v>
+      </c>
+      <c r="S3" s="1">
+        <f>Q3/Q2</f>
+        <v>346.43925233644865</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T11" si="1">N3/Q3</f>
         <v>5.939167498448839</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -2828,6 +7353,10 @@
         <f t="shared" si="0"/>
         <v>1.04E-2</v>
       </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I11" si="2">J4/J3</f>
+        <v>2</v>
+      </c>
       <c r="J4" s="3">
         <v>200</v>
       </c>
@@ -2836,19 +7365,43 @@
         <v>520.22364000000005</v>
       </c>
       <c r="L4" s="1">
+        <f t="shared" ref="L4:L7" si="3">POWER(J4/J3,4)</f>
+        <v>16</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M7" si="4">K4/K3</f>
+        <v>14.989996749721655</v>
+      </c>
+      <c r="N4" s="1">
         <f>SUM(H42:H46) /5</f>
         <v>65.649200000000022</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O11" si="5">POWER(J4/J3,3)*LOG(J4/J3,EXP(0.6))</f>
+        <v>9.2419624074659374</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P11" si="6">N4/N3</f>
+        <v>7.4547486135020611</v>
+      </c>
+      <c r="Q4" s="1">
         <f>SUM(H92:H96)/5</f>
         <v>6.6965199999999996</v>
       </c>
-      <c r="N4" s="1">
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R11" si="7">POWER(J4/J3,3)</f>
+        <v>8</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S11" si="8">Q4/Q3</f>
+        <v>4.5162534732525828</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="1"/>
         <v>9.8034800164861782</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -2874,6 +7427,10 @@
         <f t="shared" si="0"/>
         <v>9.9999999999999985E-3</v>
       </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="J5" s="3">
         <v>300</v>
       </c>
@@ -2882,19 +7439,43 @@
         <v>2666.0290799999998</v>
       </c>
       <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0625</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>5.1247749525569422</v>
+      </c>
+      <c r="N5" s="1">
         <f>SUM(H47:H51)/5</f>
         <v>254.465</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2807412331084249</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8761325347452811</v>
+      </c>
+      <c r="Q5" s="1">
         <f>SUM(H97:H101)/5</f>
         <v>37.796479999999995</v>
       </c>
-      <c r="N5" s="1">
+      <c r="R5" s="1">
+        <f t="shared" si="7"/>
+        <v>3.375</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="8"/>
+        <v>5.6441972845597412</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="1"/>
         <v>6.7325052491660609</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -2920,6 +7501,10 @@
         <f t="shared" si="0"/>
         <v>1.1399999999999999E-2</v>
       </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
       <c r="J6" s="3">
         <v>400</v>
       </c>
@@ -2928,18 +7513,42 @@
         <v>8200.645480000001</v>
       </c>
       <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1604938271604937</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>3.07597750584176</v>
+      </c>
+      <c r="N6" s="1">
         <v>546.57351999999992</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1365217677107391</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1479320142259248</v>
+      </c>
+      <c r="Q6" s="1">
         <f>SUM(H102:H106)/5</f>
         <v>53.594560000000001</v>
       </c>
-      <c r="N6" s="1">
+      <c r="R6" s="1">
+        <f t="shared" si="7"/>
+        <v>2.3703703703703702</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4179775471154987</v>
+      </c>
+      <c r="T6" s="1">
         <f t="shared" si="1"/>
         <v>10.198302215747269</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -2965,6 +7574,10 @@
         <f t="shared" si="0"/>
         <v>34.927800000000005</v>
       </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
       <c r="J7" s="3">
         <v>500</v>
       </c>
@@ -2973,18 +7586,42 @@
         <v>20391.782359999997</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.44140625</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4866069884050144</v>
+      </c>
+      <c r="N7" s="1">
         <v>1218.20804</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72637874776760991</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>2.228809108791074</v>
+      </c>
+      <c r="Q7" s="1">
         <f>SUM(H107:H111)/5</f>
         <v>156.45287999999999</v>
       </c>
-      <c r="N7" s="1">
+      <c r="R7" s="1">
+        <f t="shared" si="7"/>
+        <v>1.953125</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="8"/>
+        <v>2.9191932912594112</v>
+      </c>
+      <c r="T7" s="1">
         <f t="shared" si="1"/>
         <v>7.7864213173960115</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>100</v>
       </c>
@@ -3010,22 +7647,42 @@
         <f t="shared" si="0"/>
         <v>34.84279999999999</v>
       </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
       <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>4565.3171999999995</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>3.208558108984223</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>3.7475677799663836</v>
+      </c>
+      <c r="Q8" s="1">
         <f>SUM(H112:H116)/5</f>
         <v>478.41667999999999</v>
       </c>
-      <c r="N8" s="1">
+      <c r="R8" s="1">
+        <f t="shared" si="7"/>
+        <v>4.096000000000001</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="8"/>
+        <v>3.0578962816152697</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="1"/>
         <v>9.5425544109373437</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -3051,22 +7708,42 @@
         <f t="shared" si="0"/>
         <v>34.155399999999993</v>
       </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
       <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>10234.231399999999</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72637874776760991</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2417350102201001</v>
+      </c>
+      <c r="Q9" s="1">
         <f>SUM(H117:H121)/5</f>
         <v>1136.95216</v>
       </c>
-      <c r="N9" s="1">
+      <c r="R9" s="1">
+        <f t="shared" si="7"/>
+        <v>1.953125</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="8"/>
+        <v>2.3764893815993209</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="1"/>
         <v>9.0014617677493121</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>100</v>
       </c>
@@ -3092,22 +7769,42 @@
         <f t="shared" si="0"/>
         <v>34.973799999999997</v>
       </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
       <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>32528.728920000001</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
+        <f t="shared" si="5"/>
+        <v>3.208558108984223</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1784242165952987</v>
+      </c>
+      <c r="Q10" s="1">
         <f>SUM(H122:H126)/5</f>
         <v>6883.3377999999993</v>
       </c>
-      <c r="N10" s="1">
+      <c r="R10" s="1">
+        <f t="shared" si="7"/>
+        <v>4.096000000000001</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="8"/>
+        <v>6.054201788050606</v>
+      </c>
+      <c r="T10" s="1">
         <f t="shared" si="1"/>
         <v>4.7257202632130015</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -3133,22 +7830,42 @@
         <f t="shared" si="0"/>
         <v>34.623799999999996</v>
       </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="J11" s="3">
         <v>3200</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>290457.97975999996</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
+        <f t="shared" si="5"/>
+        <v>9.2419624074659374</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="6"/>
+        <v>8.9292754252507684</v>
+      </c>
+      <c r="Q11" s="1">
         <f>SUM(H127:H131)/5</f>
         <v>82156.752919999999</v>
       </c>
-      <c r="N11" s="1">
-        <f>L11/M11</f>
+      <c r="R11" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="8"/>
+        <v>11.935598005955775</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="1"/>
         <v>3.5354121169179233</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -3175,7 +7892,7 @@
         <v>518.19240000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>200</v>
       </c>
@@ -3202,7 +7919,7 @@
         <v>525.48680000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -3229,7 +7946,7 @@
         <v>520.89940000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>200</v>
       </c>
@@ -3256,7 +7973,7 @@
         <v>518.20320000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>200</v>
       </c>
@@ -4629,7 +9346,7 @@
         <v>4.5539529999999999</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66:H81" si="2">SUM(C66:G66)/5 * 1000</f>
+        <f t="shared" ref="H66:H81" si="9">SUM(C66:G66)/5 * 1000</f>
         <v>4569.9243999999999</v>
       </c>
     </row>
@@ -4656,7 +9373,7 @@
         <v>10.28764</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10233.043799999999</v>
       </c>
     </row>
@@ -4683,7 +9400,7 @@
         <v>10.317207</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10231.1602</v>
       </c>
     </row>
@@ -4710,7 +9427,7 @@
         <v>10.317036999999999</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10239.8068</v>
       </c>
     </row>
@@ -4737,7 +9454,7 @@
         <v>10.335501000000001</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10237.567200000001</v>
       </c>
     </row>
@@ -4764,7 +9481,7 @@
         <v>10.320164999999999</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>10229.579000000002</v>
       </c>
     </row>
@@ -4791,7 +9508,7 @@
         <v>40.173465999999998</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>40675.331399999995</v>
       </c>
     </row>
@@ -4818,7 +9535,7 @@
         <v>41.103428000000001</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>40835.94</v>
       </c>
     </row>
@@ -4845,7 +9562,7 @@
         <v>40.181854000000001</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>40516.771600000007</v>
       </c>
     </row>
@@ -4872,7 +9589,7 @@
         <v>40.197166000000003</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>40510.191000000006</v>
       </c>
     </row>
@@ -4899,7 +9616,7 @@
         <v>41.025821999999998</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>40641.757800000007</v>
       </c>
     </row>
@@ -4926,7 +9643,7 @@
         <v>361.53170799999998</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>362017.18760000006</v>
       </c>
     </row>
@@ -4953,7 +9670,7 @@
         <v>362.693939</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>362285.23559999996</v>
       </c>
     </row>
@@ -4980,7 +9697,7 @@
         <v>364.42953499999999</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>362790.96680000005</v>
       </c>
     </row>
@@ -5007,7 +9724,7 @@
         <v>360.57549999999998</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>363503.7352</v>
       </c>
     </row>
@@ -5034,7 +9751,7 @@
         <v>363.50665300000003</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>364240.24060000002</v>
       </c>
     </row>
@@ -5061,7 +9778,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" ref="H49:H115" si="3">SUM(C82:G82)/5 * 1000</f>
+        <f t="shared" ref="H82:H115" si="10">SUM(C82:G82)/5 * 1000</f>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -5088,7 +9805,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -5115,7 +9832,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
@@ -5142,7 +9859,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>4.9999999999999992E-3</v>
       </c>
     </row>
@@ -5169,7 +9886,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>3.8E-3</v>
       </c>
     </row>
@@ -5196,7 +9913,7 @@
         <v>1.5399999999999999E-3</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.5427999999999999</v>
       </c>
     </row>
@@ -5223,7 +9940,7 @@
         <v>1.462E-3</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.4671999999999998</v>
       </c>
     </row>
@@ -5250,7 +9967,7 @@
         <v>1.438E-3</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.4522000000000002</v>
       </c>
     </row>
@@ -5277,7 +9994,7 @@
         <v>1.467E-3</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.4722</v>
       </c>
     </row>
@@ -5304,7 +10021,7 @@
         <v>1.5529999999999999E-3</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1.4794</v>
       </c>
     </row>
@@ -5331,7 +10048,7 @@
         <v>6.9109999999999996E-3</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.7711999999999994</v>
       </c>
     </row>
@@ -5358,7 +10075,7 @@
         <v>6.7559999999999999E-3</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.7</v>
       </c>
     </row>
@@ -5385,7 +10102,7 @@
         <v>6.5970000000000004E-3</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.6556000000000006</v>
       </c>
     </row>
@@ -5412,7 +10129,7 @@
         <v>6.6270000000000001E-3</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.6755999999999993</v>
       </c>
     </row>
@@ -5439,7 +10156,7 @@
         <v>6.7070000000000003E-3</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6.6802000000000001</v>
       </c>
     </row>
@@ -5466,7 +10183,7 @@
         <v>3.6112999999999999E-2</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>36.0824</v>
       </c>
     </row>
@@ -5493,7 +10210,7 @@
         <v>3.6456000000000002E-2</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>36.508399999999995</v>
       </c>
     </row>
@@ -5520,7 +10237,7 @@
         <v>4.3189999999999999E-2</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>39.734199999999994</v>
       </c>
     </row>
@@ -5547,7 +10264,7 @@
         <v>3.6720999999999997E-2</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>40.346599999999995</v>
       </c>
     </row>
@@ -5574,7 +10291,7 @@
         <v>3.6165000000000003E-2</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>36.3108</v>
       </c>
     </row>
@@ -5601,7 +10318,7 @@
         <v>5.4024000000000003E-2</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>53.627400000000009</v>
       </c>
     </row>
@@ -5628,7 +10345,7 @@
         <v>5.2574000000000003E-2</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>53.074799999999996</v>
       </c>
     </row>
@@ -5655,7 +10372,7 @@
         <v>5.3837000000000003E-2</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>53.918200000000006</v>
       </c>
     </row>
@@ -5682,7 +10399,7 @@
         <v>5.3081000000000003E-2</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>53.489399999999996</v>
       </c>
     </row>
@@ -5709,7 +10426,7 @@
         <v>5.4003000000000002E-2</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>53.863000000000007</v>
       </c>
     </row>
@@ -5736,7 +10453,7 @@
         <v>0.15648100000000001</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>155.93</v>
       </c>
     </row>
@@ -5763,7 +10480,7 @@
         <v>0.156332</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>156.36440000000002</v>
       </c>
     </row>
@@ -5790,7 +10507,7 @@
         <v>0.15550900000000001</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>156.01559999999998</v>
       </c>
     </row>
@@ -5817,7 +10534,7 @@
         <v>0.15915499999999999</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>159.48180000000002</v>
       </c>
     </row>
@@ -5844,7 +10561,7 @@
         <v>0.15470700000000001</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>154.47260000000003</v>
       </c>
     </row>
@@ -5871,7 +10588,7 @@
         <v>0.47611999999999999</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>478.14579999999995</v>
       </c>
     </row>
@@ -5898,7 +10615,7 @@
         <v>0.47983300000000001</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>480.93219999999997</v>
       </c>
     </row>
@@ -5925,7 +10642,7 @@
         <v>0.47628999999999999</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>477.10039999999998</v>
       </c>
     </row>
@@ -5952,7 +10669,7 @@
         <v>0.478099</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>480.1952</v>
       </c>
     </row>
@@ -5979,7 +10696,7 @@
         <v>0.471526</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" ref="H116:H131" si="4">SUM(C116:G116)/5 * 1000</f>
+        <f t="shared" ref="H116:H131" si="11">SUM(C116:G116)/5 * 1000</f>
         <v>475.70980000000003</v>
       </c>
     </row>
@@ -6006,7 +10723,7 @@
         <v>1.1385730000000001</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1138.4714000000001</v>
       </c>
     </row>
@@ -6033,7 +10750,7 @@
         <v>1.154568</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1149.9061999999999</v>
       </c>
     </row>
@@ -6060,7 +10777,7 @@
         <v>1.1472279999999999</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1139.4592</v>
       </c>
     </row>
@@ -6087,7 +10804,7 @@
         <v>1.13503</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1130.6651999999999</v>
       </c>
     </row>
@@ -6114,7 +10831,7 @@
         <v>1.137087</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1126.2588000000001</v>
       </c>
     </row>
@@ -6141,7 +10858,7 @@
         <v>6.9187070000000004</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6870.3085999999994</v>
       </c>
     </row>
@@ -6168,7 +10885,7 @@
         <v>6.8979629999999998</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6875.8696</v>
       </c>
     </row>
@@ -6195,7 +10912,7 @@
         <v>7.0467050000000002</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6868.3996000000006</v>
       </c>
     </row>
@@ -6222,7 +10939,7 @@
         <v>6.9150239999999998</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6860.1664000000001</v>
       </c>
     </row>
@@ -6249,7 +10966,7 @@
         <v>7.0820850000000002</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6941.9448000000002</v>
       </c>
     </row>
@@ -6276,7 +10993,7 @@
         <v>82.515029999999996</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>82028.817800000004</v>
       </c>
     </row>
@@ -6303,7 +11020,7 @@
         <v>82.410172000000003</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>82134.358199999988</v>
       </c>
     </row>
@@ -6330,7 +11047,7 @@
         <v>82.843597000000003</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>82466.738800000006</v>
       </c>
     </row>
@@ -6357,7 +11074,7 @@
         <v>82.246666000000005</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>81866.684000000008</v>
       </c>
     </row>
@@ -6384,7 +11101,7 @@
         <v>82.628647000000001</v>
       </c>
       <c r="H131" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>82287.165800000002</v>
       </c>
     </row>
@@ -6394,7 +11111,7 @@
       <sortCondition ref="B1:B127"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:M136">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:Q136">
     <sortCondition ref="J2:J136"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
